--- a/backend/templates/UC-18gsm-290P-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-290P-ABQR.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9551C5F-2A92-437F-AB22-F04A8992A511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A69ED66-5A01-42F1-BFD8-B11DE1D07684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="6" r:id="rId1"/>
@@ -29,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -472,14 +475,6 @@
     <t>U-</t>
   </si>
   <si>
-    <t>Colour B
-L-(-12.50) T-(-8.50) U-(-4.50)</t>
-  </si>
-  <si>
-    <t>Colour L
-L-52.00 T-58.00 U-64.00</t>
-  </si>
-  <si>
     <t>Colour A
 L-49.00 T-54.00 U-59.00</t>
   </si>
@@ -514,6 +509,14 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Colour L
+L-54.00 T-59.00 U-63.00</t>
+  </si>
+  <si>
+    <t>Colour B
+L-(-11.50) T-(-8.50) U-(-5.50)</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1847,6 +1850,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2398,7 +2404,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="18">
     <dxf>
       <font>
         <strike/>
@@ -2439,44 +2445,6 @@
         <strike/>
         <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2597,45 +2565,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3030,7 +2959,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,35 +2973,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -3093,12 +3022,12 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="143"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3110,19 +3039,19 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="149"/>
-      <c r="K4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="151"/>
       <c r="M4" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="145"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="146"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3134,64 +3063,64 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="153"/>
     </row>
     <row r="6" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="154" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="156"/>
+      <c r="A6" s="155" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="156"/>
+      <c r="C6" s="157"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="147"/>
+        <v>140</v>
+      </c>
+      <c r="G6" s="139"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136" t="s">
+      <c r="A7" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="136" t="s">
+      <c r="E7" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="F7" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="134" t="s">
+      <c r="G7" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="134" t="s">
+      <c r="H7" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="148"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="149"/>
     </row>
     <row r="8" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="158"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137" t="s">
+      <c r="A8" s="159"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="137"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3593,11 +3522,11 @@
       <c r="K38" s="72"/>
     </row>
     <row r="39" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="165" t="s">
+      <c r="A39" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="166"/>
-      <c r="C39" s="167"/>
+      <c r="B39" s="167"/>
+      <c r="C39" s="168"/>
       <c r="D39" s="30" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3632,11 +3561,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="162" t="s">
+      <c r="A40" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="163"/>
-      <c r="C40" s="164"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="165"/>
       <c r="D40" s="33">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3671,11 +3600,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="159" t="s">
+      <c r="A41" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="160"/>
-      <c r="C41" s="161"/>
+      <c r="B41" s="161"/>
+      <c r="C41" s="162"/>
       <c r="D41" s="79">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3716,8 +3645,8 @@
       <c r="A42" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="169"/>
-      <c r="C42" s="169"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
       <c r="D42" s="38" t="s">
         <v>22</v>
       </c>
@@ -3734,8 +3663,8 @@
     </row>
     <row r="43" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
-      <c r="B43" s="168"/>
-      <c r="C43" s="168"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169"/>
       <c r="D43" s="38"/>
       <c r="F43" s="39"/>
       <c r="G43" s="40"/>
@@ -3744,15 +3673,15 @@
       <c r="J43" s="17"/>
     </row>
     <row r="44" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="153" t="s">
+      <c r="A44" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="153"/>
-      <c r="C44" s="153"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="154"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
       <c r="F44" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G44" s="39">
         <v>461303700</v>
@@ -3760,11 +3689,11 @@
       <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="153" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="153"/>
-      <c r="C45" s="153"/>
+      <c r="A45" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="154"/>
+      <c r="C45" s="154"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
@@ -3820,64 +3749,48 @@
     <mergeCell ref="J5:K5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D41">
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="notBetween">
+      <formula>17</formula>
       <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="lessThan">
-      <formula>17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E41">
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="notBetween">
+      <formula>18</formula>
       <formula>28</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="lessThan">
-      <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F41">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="notBetween">
+      <formula>360</formula>
       <formula>400</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="lessThan">
-      <formula>360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G41">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="notBetween">
+      <formula>0.3</formula>
       <formula>0.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="lessThan">
-      <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H38">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="notBetween">
-      <formula>0.6</formula>
-      <formula>1.4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="notBetween">
       <formula>0.6</formula>
       <formula>1.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I41">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="notBetween">
+      <formula>900</formula>
       <formula>1200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThan">
-      <formula>900</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J41">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
       <formula>350</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:K41">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3894,7 +3807,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I22" sqref="I22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3905,35 +3818,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -3954,18 +3867,18 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="133">
+      <c r="B4" s="134">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="203">
+      <c r="C4" s="204">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="179"/>
+      <c r="D4" s="180"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3983,25 +3896,25 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="196">
+      <c r="J4" s="197">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="197"/>
+      <c r="K4" s="198"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="141">
+      <c r="B5" s="142">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="144">
+      <c r="C5" s="145">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="145"/>
+      <c r="D5" s="146"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -4019,104 +3932,104 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="198">
+      <c r="J5" s="199">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="199"/>
+      <c r="K5" s="200"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="170" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="190"/>
+      <c r="A6" s="171" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="172"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="191"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="178" t="s">
+      <c r="A7" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="175"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="174"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="191" t="s">
+      <c r="E7" s="175"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="192" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="174"/>
-      <c r="I7" s="191" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="175"/>
-      <c r="K7" s="200" t="s">
+      <c r="H7" s="175"/>
+      <c r="I7" s="192" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="176"/>
+      <c r="K7" s="201" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="184"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="184" t="s">
+      <c r="A8" s="185"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="186" t="s">
+      <c r="E8" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="187" t="s">
+      <c r="F8" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="192"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="192" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="187"/>
-      <c r="K8" s="201"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="193" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="188"/>
+      <c r="K8" s="202"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="184"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="193"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="194"/>
       <c r="I9" s="47" t="s">
         <v>128</v>
       </c>
       <c r="J9" s="48">
         <v>290</v>
       </c>
-      <c r="K9" s="201"/>
+      <c r="K9" s="202"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="184"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="195"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="196"/>
       <c r="I10" s="49" t="s">
         <v>129</v>
       </c>
       <c r="J10" s="50">
         <v>293</v>
       </c>
-      <c r="K10" s="202"/>
+      <c r="K10" s="203"/>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82">
@@ -4134,10 +4047,10 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
       <c r="F11" s="52"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="205"/>
+      <c r="G11" s="220"/>
+      <c r="H11" s="220"/>
+      <c r="I11" s="205"/>
+      <c r="J11" s="206"/>
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4156,10 +4069,10 @@
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="206"/>
-      <c r="J12" s="207"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="208"/>
       <c r="K12" s="56"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4178,10 +4091,10 @@
       <c r="D13" s="54"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="206"/>
-      <c r="J13" s="207"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="208"/>
       <c r="K13" s="56"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4200,10 +4113,10 @@
       <c r="D14" s="54"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="206"/>
-      <c r="J14" s="207"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="213"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="208"/>
       <c r="K14" s="56"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4222,10 +4135,10 @@
       <c r="D15" s="54"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="206"/>
-      <c r="J15" s="207"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="208"/>
       <c r="K15" s="56"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4244,10 +4157,10 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="207"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="220"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="208"/>
       <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4266,10 +4179,10 @@
       <c r="D17" s="54"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="207"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="207"/>
+      <c r="J17" s="208"/>
       <c r="K17" s="56"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4288,10 +4201,10 @@
       <c r="D18" s="54"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="206"/>
-      <c r="J18" s="207"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="208"/>
       <c r="K18" s="56"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4310,10 +4223,10 @@
       <c r="D19" s="54"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="207"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="208"/>
       <c r="K19" s="56"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4332,10 +4245,10 @@
       <c r="D20" s="54"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
-      <c r="G20" s="217"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="206"/>
-      <c r="J20" s="207"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="208"/>
       <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4354,10 +4267,10 @@
       <c r="D21" s="54"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
-      <c r="G21" s="217"/>
-      <c r="H21" s="218"/>
-      <c r="I21" s="206"/>
-      <c r="J21" s="207"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="207"/>
+      <c r="J21" s="208"/>
       <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4376,10 +4289,10 @@
       <c r="D22" s="54"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
-      <c r="G22" s="217"/>
-      <c r="H22" s="218"/>
-      <c r="I22" s="206"/>
-      <c r="J22" s="207"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="208"/>
       <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4398,10 +4311,10 @@
       <c r="D23" s="54"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="217"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="206"/>
-      <c r="J23" s="207"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="208"/>
       <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4420,10 +4333,10 @@
       <c r="D24" s="54"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="217"/>
-      <c r="H24" s="218"/>
-      <c r="I24" s="206"/>
-      <c r="J24" s="207"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="208"/>
       <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4442,10 +4355,10 @@
       <c r="D25" s="54"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="217"/>
-      <c r="H25" s="218"/>
-      <c r="I25" s="206"/>
-      <c r="J25" s="207"/>
+      <c r="G25" s="218"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="208"/>
       <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4464,10 +4377,10 @@
       <c r="D26" s="54"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="218"/>
-      <c r="I26" s="206"/>
-      <c r="J26" s="207"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="208"/>
       <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4486,10 +4399,10 @@
       <c r="D27" s="54"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
-      <c r="G27" s="217"/>
-      <c r="H27" s="218"/>
-      <c r="I27" s="206"/>
-      <c r="J27" s="207"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="207"/>
+      <c r="J27" s="208"/>
       <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4508,10 +4421,10 @@
       <c r="D28" s="54"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
-      <c r="G28" s="217"/>
-      <c r="H28" s="218"/>
-      <c r="I28" s="206"/>
-      <c r="J28" s="207"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="219"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="208"/>
       <c r="K28" s="56"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4530,10 +4443,10 @@
       <c r="D29" s="54"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
-      <c r="G29" s="217"/>
-      <c r="H29" s="218"/>
-      <c r="I29" s="206"/>
-      <c r="J29" s="207"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="207"/>
+      <c r="J29" s="208"/>
       <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4552,10 +4465,10 @@
       <c r="D30" s="54"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="218"/>
-      <c r="I30" s="206"/>
-      <c r="J30" s="207"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="207"/>
+      <c r="J30" s="208"/>
       <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4574,10 +4487,10 @@
       <c r="D31" s="54"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="218"/>
-      <c r="I31" s="206"/>
-      <c r="J31" s="207"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="208"/>
       <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4596,10 +4509,10 @@
       <c r="D32" s="54"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="206"/>
-      <c r="J32" s="207"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="219"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="208"/>
       <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4618,10 +4531,10 @@
       <c r="D33" s="54"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="217"/>
-      <c r="H33" s="218"/>
-      <c r="I33" s="206"/>
-      <c r="J33" s="207"/>
+      <c r="G33" s="218"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="208"/>
       <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4640,10 +4553,10 @@
       <c r="D34" s="54"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
-      <c r="G34" s="217"/>
-      <c r="H34" s="218"/>
-      <c r="I34" s="206"/>
-      <c r="J34" s="207"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="208"/>
       <c r="K34" s="56"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4662,10 +4575,10 @@
       <c r="D35" s="54"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
-      <c r="G35" s="217"/>
-      <c r="H35" s="218"/>
-      <c r="I35" s="206"/>
-      <c r="J35" s="207"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="207"/>
+      <c r="J35" s="208"/>
       <c r="K35" s="56"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4684,10 +4597,10 @@
       <c r="D36" s="54"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55"/>
-      <c r="G36" s="217"/>
-      <c r="H36" s="218"/>
-      <c r="I36" s="206"/>
-      <c r="J36" s="207"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="219"/>
+      <c r="I36" s="207"/>
+      <c r="J36" s="208"/>
       <c r="K36" s="56"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4706,10 +4619,10 @@
       <c r="D37" s="54"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55"/>
-      <c r="G37" s="217"/>
-      <c r="H37" s="218"/>
-      <c r="I37" s="206"/>
-      <c r="J37" s="207"/>
+      <c r="G37" s="218"/>
+      <c r="H37" s="219"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="208"/>
       <c r="K37" s="56"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4728,10 +4641,10 @@
       <c r="D38" s="54"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
-      <c r="G38" s="217"/>
-      <c r="H38" s="218"/>
-      <c r="I38" s="206"/>
-      <c r="J38" s="207"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="208"/>
       <c r="K38" s="56"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4750,10 +4663,10 @@
       <c r="D39" s="54"/>
       <c r="E39" s="55"/>
       <c r="F39" s="55"/>
-      <c r="G39" s="217"/>
-      <c r="H39" s="218"/>
-      <c r="I39" s="206"/>
-      <c r="J39" s="207"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="219"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="208"/>
       <c r="K39" s="56"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4772,18 +4685,18 @@
       <c r="D40" s="54"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
-      <c r="G40" s="212"/>
-      <c r="H40" s="212"/>
-      <c r="I40" s="206"/>
-      <c r="J40" s="207"/>
+      <c r="G40" s="213"/>
+      <c r="H40" s="213"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="208"/>
       <c r="K40" s="56"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="180" t="s">
+      <c r="A41" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="181"/>
-      <c r="C41" s="181"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
       <c r="D41" s="57" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4796,27 +4709,27 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="222" t="e">
+      <c r="G41" s="223" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="223"/>
-      <c r="I41" s="220" t="e">
+      <c r="H41" s="224"/>
+      <c r="I41" s="221" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="221"/>
+      <c r="J41" s="222"/>
       <c r="K41" s="59" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="182" t="s">
+      <c r="A42" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="183"/>
-      <c r="C42" s="183"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
       <c r="D42" s="60">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4829,27 +4742,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="215">
+      <c r="G42" s="216">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="216"/>
-      <c r="I42" s="208">
+      <c r="H42" s="217"/>
+      <c r="I42" s="209">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="209"/>
+      <c r="J42" s="210"/>
       <c r="K42" s="62">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="176" t="s">
+      <c r="A43" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="177"/>
-      <c r="C43" s="177"/>
+      <c r="B43" s="178"/>
+      <c r="C43" s="178"/>
       <c r="D43" s="63">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4862,16 +4775,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="213">
+      <c r="G43" s="214">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="214"/>
-      <c r="I43" s="210">
+      <c r="H43" s="215"/>
+      <c r="I43" s="211">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="211"/>
+      <c r="J43" s="212"/>
       <c r="K43" s="65">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4881,8 +4794,8 @@
       <c r="A44" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
       <c r="D44" s="38" t="s">
         <v>22</v>
       </c>
@@ -4899,8 +4812,8 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
-      <c r="B45" s="168"/>
-      <c r="C45" s="168"/>
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
       <c r="D45" s="38"/>
       <c r="F45" s="39"/>
       <c r="G45" s="40"/>
@@ -4909,15 +4822,15 @@
       <c r="J45" s="17"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="153" t="s">
+      <c r="A46" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="153"/>
-      <c r="C46" s="153"/>
+      <c r="B46" s="154"/>
+      <c r="C46" s="154"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G46" s="39">
         <f>Page1!G44</f>
@@ -4926,11 +4839,11 @@
       <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="153" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="153"/>
-      <c r="C47" s="153"/>
+      <c r="A47" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="154"/>
+      <c r="C47" s="154"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
@@ -5082,37 +4995,37 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="notBetween">
+      <formula>700</formula>
       <formula>1000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThan">
-      <formula>700</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E43">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F43">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H19 G20:G39 G40:H43">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="notBetween">
+      <formula>50</formula>
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
-      <formula>50</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:J43">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="notBetween">
+      <formula>290</formula>
+      <formula>293</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K43">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="notBetween">
+      <formula>410</formula>
       <formula>450</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
-      <formula>410</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5128,7 +5041,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I6" sqref="I6:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5139,35 +5052,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -5188,15 +5101,15 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="203">
+      <c r="B4" s="134"/>
+      <c r="C4" s="204">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="179"/>
+      <c r="D4" s="180"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -5214,22 +5127,22 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="196">
+      <c r="J4" s="197">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="197"/>
+      <c r="K4" s="198"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="144">
+      <c r="B5" s="142"/>
+      <c r="C5" s="145">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="145"/>
+      <c r="D5" s="146"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -5247,79 +5160,79 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="198">
+      <c r="J5" s="199">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="199"/>
+      <c r="K5" s="200"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="154" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="139"/>
+      <c r="A6" s="155" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="156"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="140"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="200"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="201"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="174"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="178" t="s">
+      <c r="A7" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="175"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="233" t="s">
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="234" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="184"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="201"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="202"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="184"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="236" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="186" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="186" t="s">
+      <c r="A8" s="185"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="237" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="187" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="186" t="s">
+      <c r="F8" s="187" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="234"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="201"/>
+      <c r="H8" s="235"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="202"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="185"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="201"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="202"/>
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="82">
@@ -5339,9 +5252,9 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="201"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="202"/>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="85">
@@ -5361,9 +5274,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="201"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="202"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="85">
@@ -5383,9 +5296,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="201"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="202"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="85">
@@ -5405,9 +5318,9 @@
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="184"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="201"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="202"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="85">
@@ -5427,9 +5340,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="201"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="202"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="85">
@@ -5449,9 +5362,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="201"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="202"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="85">
@@ -5471,9 +5384,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="201"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="202"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="85">
@@ -5493,9 +5406,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="201"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="202"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="85">
@@ -5515,9 +5428,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="201"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="202"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="85">
@@ -5537,9 +5450,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="193"/>
-      <c r="K19" s="201"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="202"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
@@ -5559,9 +5472,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="201"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="202"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="85">
@@ -5581,9 +5494,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="201"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="202"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="85">
@@ -5603,9 +5516,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="201"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="202"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="85">
@@ -5625,9 +5538,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="201"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="202"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="85">
@@ -5647,9 +5560,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="201"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="202"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="85">
@@ -5669,9 +5582,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="193"/>
-      <c r="K25" s="201"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="202"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="85">
@@ -5691,9 +5604,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="193"/>
-      <c r="K26" s="201"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="202"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="85">
@@ -5713,9 +5626,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="193"/>
-      <c r="K27" s="201"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="202"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="85">
@@ -5735,9 +5648,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="193"/>
-      <c r="K28" s="201"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="202"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="85">
@@ -5757,9 +5670,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="27"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="193"/>
-      <c r="K29" s="201"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="202"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="91">
@@ -5779,9 +5692,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="27"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="193"/>
-      <c r="K30" s="201"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="202"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="85">
@@ -5801,9 +5714,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="27"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="193"/>
-      <c r="K31" s="201"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="202"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="85">
@@ -5823,9 +5736,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="193"/>
-      <c r="K32" s="201"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="202"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="85">
@@ -5845,9 +5758,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="193"/>
-      <c r="K33" s="201"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="202"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="85">
@@ -5867,9 +5780,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="184"/>
-      <c r="J34" s="193"/>
-      <c r="K34" s="201"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="194"/>
+      <c r="K34" s="202"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="85">
@@ -5889,9 +5802,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="193"/>
-      <c r="K35" s="201"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="202"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="85">
@@ -5911,9 +5824,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="184"/>
-      <c r="J36" s="193"/>
-      <c r="K36" s="201"/>
+      <c r="I36" s="185"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="202"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="85">
@@ -5933,9 +5846,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="184"/>
-      <c r="J37" s="193"/>
-      <c r="K37" s="201"/>
+      <c r="I37" s="185"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="202"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="85">
@@ -5955,9 +5868,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="184"/>
-      <c r="J38" s="193"/>
-      <c r="K38" s="201"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="194"/>
+      <c r="K38" s="202"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="92">
@@ -5977,16 +5890,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="184"/>
-      <c r="J39" s="193"/>
-      <c r="K39" s="201"/>
+      <c r="I39" s="185"/>
+      <c r="J39" s="194"/>
+      <c r="K39" s="202"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="225" t="s">
+      <c r="A40" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="226"/>
-      <c r="C40" s="227"/>
+      <c r="B40" s="227"/>
+      <c r="C40" s="228"/>
       <c r="D40" s="29" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -6007,16 +5920,16 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="184"/>
-      <c r="J40" s="193"/>
-      <c r="K40" s="201"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="194"/>
+      <c r="K40" s="202"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="162" t="s">
+      <c r="A41" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="163"/>
-      <c r="C41" s="164"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="165"/>
       <c r="D41" s="32">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -6037,16 +5950,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="184"/>
-      <c r="J41" s="193"/>
-      <c r="K41" s="201"/>
+      <c r="I41" s="185"/>
+      <c r="J41" s="194"/>
+      <c r="K41" s="202"/>
     </row>
     <row r="42" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="228" t="s">
+      <c r="A42" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="229"/>
-      <c r="C42" s="230"/>
+      <c r="B42" s="230"/>
+      <c r="C42" s="231"/>
       <c r="D42" s="35">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -6067,16 +5980,16 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="185"/>
-      <c r="J42" s="195"/>
-      <c r="K42" s="202"/>
+      <c r="I42" s="186"/>
+      <c r="J42" s="196"/>
+      <c r="K42" s="203"/>
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
       <c r="D43" s="38" t="s">
         <v>22</v>
       </c>
@@ -6093,8 +6006,8 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
       <c r="D44" s="38"/>
       <c r="F44" s="39"/>
       <c r="G44" s="40"/>
@@ -6103,15 +6016,15 @@
       <c r="J44" s="17"/>
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="153" t="s">
+      <c r="A45" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="153"/>
-      <c r="C45" s="153"/>
+      <c r="B45" s="154"/>
+      <c r="C45" s="154"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G45" s="39">
         <f>Page1!G44</f>
@@ -6120,11 +6033,11 @@
       <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="153" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="153"/>
-      <c r="C46" s="153"/>
+      <c r="A46" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="154"/>
+      <c r="C46" s="154"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
@@ -6177,8 +6090,8 @@
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="notBetween">
-      <formula>52</formula>
-      <formula>64</formula>
+      <formula>54</formula>
+      <formula>63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E42">
@@ -6189,8 +6102,8 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F42">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="notBetween">
-      <formula>-12.5</formula>
-      <formula>-4.5</formula>
+      <formula>-11.5</formula>
+      <formula>-5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H42">
@@ -6212,7 +6125,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6225,15 +6138,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="299"/>
-      <c r="C1" s="299"/>
-      <c r="D1" s="299"/>
-      <c r="E1" s="299"/>
-      <c r="F1" s="299"/>
-      <c r="G1" s="300"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="301"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="99"/>
@@ -6247,37 +6160,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="305" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="306"/>
-      <c r="C3" s="306"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="306"/>
-      <c r="F3" s="306"/>
-      <c r="G3" s="307"/>
+      <c r="A3" s="306" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="307"/>
+      <c r="C3" s="307"/>
+      <c r="D3" s="307"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="307"/>
+      <c r="G3" s="308"/>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="201"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="202"/>
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="301" t="s">
+      <c r="A5" s="302" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="302"/>
-      <c r="C5" s="302"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="303"/>
+      <c r="B5" s="303"/>
+      <c r="C5" s="303"/>
+      <c r="D5" s="303"/>
+      <c r="E5" s="303"/>
+      <c r="F5" s="303"/>
+      <c r="G5" s="304"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
@@ -6289,14 +6202,14 @@
       <c r="C6" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="257" t="s">
+      <c r="D6" s="258" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="259"/>
-      <c r="F6" s="278" t="s">
+      <c r="E6" s="260"/>
+      <c r="F6" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="282">
+      <c r="G6" s="283">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -6309,13 +6222,13 @@
       <c r="C7" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="257">
+      <c r="D7" s="258">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="259"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="304"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="279"/>
+      <c r="G7" s="305"/>
     </row>
     <row r="8" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
@@ -6328,15 +6241,15 @@
       <c r="C8" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="278">
+      <c r="D8" s="279">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="278"/>
-      <c r="F8" s="279" t="s">
+      <c r="E8" s="279"/>
+      <c r="F8" s="280" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="282">
+      <c r="G8" s="283">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -6349,15 +6262,15 @@
         <f>Page1!G44</f>
         <v>461303700</v>
       </c>
-      <c r="C9" s="279" t="s">
+      <c r="C9" s="280" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="285" t="s">
+      <c r="D9" s="286" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="286"/>
-      <c r="F9" s="280"/>
-      <c r="G9" s="283"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="281"/>
+      <c r="G9" s="284"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="109" t="s">
@@ -6367,34 +6280,34 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="281"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="288"/>
-      <c r="F10" s="281"/>
-      <c r="G10" s="284"/>
+      <c r="C10" s="282"/>
+      <c r="D10" s="288"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="282"/>
+      <c r="G10" s="285"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="289" t="s">
+      <c r="A11" s="290" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="291" t="s">
+      <c r="B11" s="292" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="293" t="s">
+      <c r="C11" s="294" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="294"/>
-      <c r="E11" s="295"/>
-      <c r="F11" s="291" t="s">
+      <c r="D11" s="295"/>
+      <c r="E11" s="296"/>
+      <c r="F11" s="292" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="296" t="s">
+      <c r="G11" s="297" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="290"/>
-      <c r="B12" s="292"/>
+      <c r="A12" s="291"/>
+      <c r="B12" s="293"/>
       <c r="C12" s="111" t="s">
         <v>63</v>
       </c>
@@ -6404,8 +6317,8 @@
       <c r="E12" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="292"/>
-      <c r="G12" s="297"/>
+      <c r="F12" s="293"/>
+      <c r="G12" s="298"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="112" t="s">
@@ -6475,7 +6388,7 @@
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="274" t="s">
+      <c r="G15" s="275" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6499,7 +6412,7 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="234"/>
+      <c r="G16" s="235"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="116" t="s">
@@ -6521,7 +6434,7 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="234"/>
+      <c r="G17" s="235"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="116" t="s">
@@ -6543,7 +6456,7 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="234"/>
+      <c r="G18" s="235"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
@@ -6565,7 +6478,7 @@
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="234"/>
+      <c r="G19" s="235"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="116" t="s">
@@ -6587,7 +6500,7 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="234"/>
+      <c r="G20" s="235"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="116" t="s">
@@ -6609,7 +6522,7 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="234"/>
+      <c r="G21" s="235"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="116" t="s">
@@ -6631,7 +6544,7 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="148"/>
+      <c r="G22" s="149"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="116" t="s">
@@ -6731,26 +6644,26 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="271" t="s">
+      <c r="A27" s="272" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="272"/>
-      <c r="C27" s="272"/>
-      <c r="D27" s="272"/>
-      <c r="E27" s="272"/>
-      <c r="F27" s="272"/>
-      <c r="G27" s="273"/>
+      <c r="B27" s="273"/>
+      <c r="C27" s="273"/>
+      <c r="D27" s="273"/>
+      <c r="E27" s="273"/>
+      <c r="F27" s="273"/>
+      <c r="G27" s="274"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="255" t="s">
+      <c r="A28" s="256" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="256"/>
-      <c r="C28" s="275" t="s">
+      <c r="B28" s="257"/>
+      <c r="C28" s="276" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="276"/>
-      <c r="E28" s="277"/>
+      <c r="D28" s="277"/>
+      <c r="E28" s="278"/>
       <c r="F28" s="125" t="s">
         <v>96</v>
       </c>
@@ -6759,15 +6672,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="260" t="s">
+      <c r="A29" s="261" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="259"/>
-      <c r="C29" s="265" t="s">
+      <c r="B29" s="260"/>
+      <c r="C29" s="266" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="266"/>
-      <c r="E29" s="267"/>
+      <c r="D29" s="267"/>
+      <c r="E29" s="268"/>
       <c r="F29" s="60" t="s">
         <v>96</v>
       </c>
@@ -6776,15 +6689,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="260" t="s">
+      <c r="A30" s="261" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="259"/>
-      <c r="C30" s="265" t="s">
+      <c r="B30" s="260"/>
+      <c r="C30" s="266" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="266"/>
-      <c r="E30" s="267"/>
+      <c r="D30" s="267"/>
+      <c r="E30" s="268"/>
       <c r="F30" s="60" t="s">
         <v>96</v>
       </c>
@@ -6793,15 +6706,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="260" t="s">
+      <c r="A31" s="261" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="259"/>
-      <c r="C31" s="265" t="s">
+      <c r="B31" s="260"/>
+      <c r="C31" s="266" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="266"/>
-      <c r="E31" s="267"/>
+      <c r="D31" s="267"/>
+      <c r="E31" s="268"/>
       <c r="F31" s="60" t="s">
         <v>96</v>
       </c>
@@ -6810,15 +6723,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="260" t="s">
+      <c r="A32" s="261" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="259"/>
-      <c r="C32" s="265" t="s">
+      <c r="B32" s="260"/>
+      <c r="C32" s="266" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="266"/>
-      <c r="E32" s="267"/>
+      <c r="D32" s="267"/>
+      <c r="E32" s="268"/>
       <c r="F32" s="60" t="s">
         <v>96</v>
       </c>
@@ -6826,61 +6739,61 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="260" t="s">
+    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="261" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="259"/>
-      <c r="C33" s="265" t="s">
+      <c r="B33" s="260"/>
+      <c r="C33" s="266" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="266"/>
-      <c r="E33" s="267"/>
+      <c r="D33" s="267"/>
+      <c r="E33" s="268"/>
       <c r="F33" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="67" t="s">
+      <c r="G33" s="120" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="140" t="s">
+      <c r="A34" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="141"/>
-      <c r="C34" s="268" t="s">
+      <c r="B34" s="142"/>
+      <c r="C34" s="269" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="269"/>
-      <c r="E34" s="270"/>
+      <c r="D34" s="270"/>
+      <c r="E34" s="271"/>
       <c r="F34" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="67" t="s">
+      <c r="G34" s="131" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="271" t="s">
+      <c r="A35" s="272" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="272"/>
-      <c r="C35" s="272"/>
-      <c r="D35" s="272"/>
-      <c r="E35" s="272"/>
-      <c r="F35" s="272"/>
-      <c r="G35" s="273"/>
+      <c r="B35" s="273"/>
+      <c r="C35" s="273"/>
+      <c r="D35" s="273"/>
+      <c r="E35" s="273"/>
+      <c r="F35" s="273"/>
+      <c r="G35" s="274"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="132" t="s">
+      <c r="A36" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="133"/>
-      <c r="C36" s="263" t="s">
+      <c r="B36" s="134"/>
+      <c r="C36" s="264" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="264"/>
-      <c r="E36" s="133"/>
+      <c r="D36" s="265"/>
+      <c r="E36" s="134"/>
       <c r="F36" s="10" t="s">
         <v>96</v>
       </c>
@@ -6889,15 +6802,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="255" t="s">
+      <c r="A37" s="256" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="256"/>
-      <c r="C37" s="257" t="s">
+      <c r="B37" s="257"/>
+      <c r="C37" s="258" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="258"/>
-      <c r="E37" s="259"/>
+      <c r="D37" s="259"/>
+      <c r="E37" s="260"/>
       <c r="F37" s="118" t="s">
         <v>96</v>
       </c>
@@ -6906,15 +6819,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="260" t="s">
+      <c r="A38" s="261" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="259"/>
-      <c r="C38" s="257" t="s">
+      <c r="B38" s="260"/>
+      <c r="C38" s="258" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="258"/>
-      <c r="E38" s="259"/>
+      <c r="D38" s="259"/>
+      <c r="E38" s="260"/>
       <c r="F38" s="118" t="s">
         <v>96</v>
       </c>
@@ -6923,15 +6836,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="140" t="s">
+      <c r="A39" s="141" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="141"/>
-      <c r="C39" s="261" t="s">
+      <c r="B39" s="142"/>
+      <c r="C39" s="262" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="262"/>
-      <c r="E39" s="141"/>
+      <c r="D39" s="263"/>
+      <c r="E39" s="142"/>
       <c r="F39" s="1" t="s">
         <v>96</v>
       </c>
@@ -6940,50 +6853,50 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="241" t="s">
+      <c r="A40" s="242" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="242"/>
-      <c r="C40" s="243" t="s">
+      <c r="B40" s="243"/>
+      <c r="C40" s="244" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="245"/>
+      <c r="E40" s="246"/>
+      <c r="F40" s="244" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="246"/>
+    </row>
+    <row r="41" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="250"/>
+      <c r="B41" s="251"/>
+      <c r="C41" s="185"/>
+      <c r="D41" s="194"/>
+      <c r="E41" s="202"/>
+      <c r="F41" s="254"/>
+      <c r="G41" s="255"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="252"/>
+      <c r="B42" s="253"/>
+      <c r="C42" s="247" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="249"/>
+      <c r="E42" s="248"/>
+      <c r="F42" s="247" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="244"/>
-      <c r="E40" s="245"/>
-      <c r="F40" s="243" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40" s="245"/>
-    </row>
-    <row r="41" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="249"/>
-      <c r="B41" s="250"/>
-      <c r="C41" s="184"/>
-      <c r="D41" s="193"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="253"/>
-      <c r="G41" s="254"/>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="251"/>
-      <c r="B42" s="252"/>
-      <c r="C42" s="246" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="248"/>
-      <c r="E42" s="247"/>
-      <c r="F42" s="246" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="247"/>
+      <c r="G42" s="248"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="127"/>
       <c r="B43" s="127"/>
       <c r="C43" s="127"/>
       <c r="D43" s="127"/>
-      <c r="E43" s="239"/>
-      <c r="F43" s="239"/>
-      <c r="G43" s="239"/>
+      <c r="E43" s="240"/>
+      <c r="F43" s="240"/>
+      <c r="G43" s="240"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
@@ -6992,21 +6905,21 @@
       <c r="B44" s="128"/>
       <c r="C44" s="129"/>
       <c r="D44" s="127"/>
-      <c r="E44" s="240"/>
-      <c r="F44" s="240"/>
-      <c r="G44" s="240"/>
+      <c r="E44" s="241"/>
+      <c r="F44" s="241"/>
+      <c r="G44" s="241"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="238" t="s">
+      <c r="A46" s="239" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="238"/>
+      <c r="B46" s="239"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="238" t="s">
+      <c r="A47" s="239" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="238"/>
+      <c r="B47" s="239"/>
     </row>
   </sheetData>
   <mergeCells count="55">

--- a/backend/templates/UC-18gsm-290P-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-290P-ABQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A69ED66-5A01-42F1-BFD8-B11DE1D07684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F1B483-2DC0-416F-82E3-BEE978F82596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="142">
   <si>
     <t>Sample No.</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>Unicharm</t>
-  </si>
-  <si>
-    <t># 02</t>
   </si>
   <si>
     <t xml:space="preserve">Production Date </t>
@@ -1855,6 +1852,63 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1870,12 +1924,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1927,112 +1975,72 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2044,6 +2052,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2068,6 +2082,9 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2080,115 +2097,254 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2239,165 +2395,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2973,35 +2970,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -3022,12 +3019,12 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="161"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3039,19 +3036,19 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="150"/>
-      <c r="K4" s="151"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="168"/>
       <c r="M4" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="142"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="146"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3063,28 +3060,28 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="152"/>
-      <c r="K5" s="153"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="170"/>
     </row>
     <row r="6" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="155" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="157"/>
+      <c r="A6" s="133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="148"/>
+        <v>139</v>
+      </c>
+      <c r="G6" s="156"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="165"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="136" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="137"/>
@@ -3098,29 +3095,29 @@
       <c r="F7" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="135" t="s">
+      <c r="G7" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="135" t="s">
-        <v>127</v>
+      <c r="H7" s="154" t="s">
+        <v>126</v>
       </c>
       <c r="I7" s="137" t="s">
         <v>1</v>
       </c>
       <c r="J7" s="137"/>
-      <c r="K7" s="149"/>
+      <c r="K7" s="166"/>
     </row>
     <row r="8" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="159"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138" t="s">
+      <c r="A8" s="138"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="138"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3522,11 +3519,11 @@
       <c r="K38" s="72"/>
     </row>
     <row r="39" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="166" t="s">
+      <c r="A39" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="167"/>
-      <c r="C39" s="168"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="148"/>
       <c r="D39" s="30" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3561,11 +3558,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="163" t="s">
+      <c r="A40" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="164"/>
-      <c r="C40" s="165"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="145"/>
       <c r="D40" s="33">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3600,11 +3597,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="160" t="s">
+      <c r="A41" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="161"/>
-      <c r="C41" s="162"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="142"/>
       <c r="D41" s="79">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3645,8 +3642,8 @@
       <c r="A42" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
+      <c r="B42" s="150"/>
+      <c r="C42" s="150"/>
       <c r="D42" s="38" t="s">
         <v>22</v>
       </c>
@@ -3663,8 +3660,8 @@
     </row>
     <row r="43" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
       <c r="D43" s="38"/>
       <c r="F43" s="39"/>
       <c r="G43" s="40"/>
@@ -3673,15 +3670,15 @@
       <c r="J43" s="17"/>
     </row>
     <row r="44" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="154" t="s">
+      <c r="A44" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="154"/>
-      <c r="C44" s="154"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="132"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
       <c r="F44" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G44" s="39">
         <v>461303700</v>
@@ -3689,11 +3686,11 @@
       <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="154" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" s="154"/>
-      <c r="C45" s="154"/>
+      <c r="A45" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
@@ -3722,16 +3719,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A4:B4"/>
@@ -3747,6 +3734,16 @@
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D41">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="notBetween">
@@ -3818,35 +3815,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -3867,18 +3864,18 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="134">
+      <c r="B4" s="153">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="204">
+      <c r="C4" s="208">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="180"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3896,25 +3893,25 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="197">
+      <c r="J4" s="200">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="198"/>
+      <c r="K4" s="201"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="142">
+      <c r="B5" s="159">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="145">
+      <c r="C5" s="162">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="146"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3932,104 +3929,104 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="199">
+      <c r="J5" s="202">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="200"/>
+      <c r="K5" s="203"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="171" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="191"/>
+      <c r="A6" s="212" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="213"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="192"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="179" t="s">
+      <c r="A7" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="175"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="192" t="s">
+      <c r="E7" s="195"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="175"/>
-      <c r="I7" s="192" t="s">
-        <v>133</v>
-      </c>
-      <c r="J7" s="176"/>
-      <c r="K7" s="201" t="s">
-        <v>126</v>
+      <c r="H7" s="195"/>
+      <c r="I7" s="193" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="194"/>
+      <c r="K7" s="205" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="185" t="s">
+      <c r="A8" s="211"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="187" t="s">
+      <c r="E8" s="223" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="188" t="s">
+      <c r="F8" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="193"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="193" t="s">
-        <v>132</v>
-      </c>
-      <c r="J8" s="188"/>
-      <c r="K8" s="202"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="196" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="204"/>
+      <c r="K8" s="206"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="194"/>
+      <c r="A9" s="211"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="197"/>
       <c r="I9" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" s="48">
         <v>290</v>
       </c>
-      <c r="K9" s="202"/>
+      <c r="K9" s="206"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="185"/>
-      <c r="B10" s="194"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="196"/>
+      <c r="A10" s="211"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="199"/>
       <c r="I10" s="49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J10" s="50">
         <v>293</v>
       </c>
-      <c r="K10" s="203"/>
+      <c r="K10" s="207"/>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82">
@@ -4047,10 +4044,10 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
       <c r="F11" s="52"/>
-      <c r="G11" s="220"/>
-      <c r="H11" s="220"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="206"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="187"/>
+      <c r="J11" s="188"/>
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4069,10 +4066,10 @@
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
-      <c r="G12" s="213"/>
-      <c r="H12" s="213"/>
-      <c r="I12" s="207"/>
-      <c r="J12" s="208"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="174"/>
       <c r="K12" s="56"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4091,10 +4088,10 @@
       <c r="D13" s="54"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="207"/>
-      <c r="J13" s="208"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="174"/>
       <c r="K13" s="56"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4113,10 +4110,10 @@
       <c r="D14" s="54"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="213"/>
-      <c r="I14" s="207"/>
-      <c r="J14" s="208"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="174"/>
       <c r="K14" s="56"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4135,10 +4132,10 @@
       <c r="D15" s="54"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="208"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="174"/>
       <c r="K15" s="56"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4157,10 +4154,10 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="220"/>
-      <c r="H16" s="220"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="208"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="174"/>
       <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4179,10 +4176,10 @@
       <c r="D17" s="54"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="207"/>
-      <c r="J17" s="208"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="174"/>
       <c r="K17" s="56"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4201,10 +4198,10 @@
       <c r="D18" s="54"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="207"/>
-      <c r="J18" s="208"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="174"/>
       <c r="K18" s="56"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4223,10 +4220,10 @@
       <c r="D19" s="54"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="207"/>
-      <c r="J19" s="208"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="174"/>
       <c r="K19" s="56"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4245,10 +4242,10 @@
       <c r="D20" s="54"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="207"/>
-      <c r="J20" s="208"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="174"/>
       <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4267,10 +4264,10 @@
       <c r="D21" s="54"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
-      <c r="G21" s="218"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="207"/>
-      <c r="J21" s="208"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="174"/>
       <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4289,10 +4286,10 @@
       <c r="D22" s="54"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
-      <c r="G22" s="218"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="208"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="174"/>
       <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4311,10 +4308,10 @@
       <c r="D23" s="54"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="208"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="174"/>
       <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4333,10 +4330,10 @@
       <c r="D24" s="54"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="218"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="174"/>
       <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4355,10 +4352,10 @@
       <c r="D25" s="54"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="218"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="207"/>
-      <c r="J25" s="208"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="174"/>
       <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4377,10 +4374,10 @@
       <c r="D26" s="54"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
-      <c r="G26" s="218"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="208"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="174"/>
       <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4399,10 +4396,10 @@
       <c r="D27" s="54"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
-      <c r="G27" s="218"/>
-      <c r="H27" s="219"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="208"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="174"/>
       <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4421,10 +4418,10 @@
       <c r="D28" s="54"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
-      <c r="G28" s="218"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="208"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="174"/>
       <c r="K28" s="56"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4443,10 +4440,10 @@
       <c r="D29" s="54"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
-      <c r="G29" s="218"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="207"/>
-      <c r="J29" s="208"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="174"/>
       <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4465,10 +4462,10 @@
       <c r="D30" s="54"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="207"/>
-      <c r="J30" s="208"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="174"/>
       <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4487,10 +4484,10 @@
       <c r="D31" s="54"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="208"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="174"/>
       <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4509,10 +4506,10 @@
       <c r="D32" s="54"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="208"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="174"/>
       <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4531,10 +4528,10 @@
       <c r="D33" s="54"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="218"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="208"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="174"/>
       <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4553,10 +4550,10 @@
       <c r="D34" s="54"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
-      <c r="G34" s="218"/>
-      <c r="H34" s="219"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="208"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="174"/>
       <c r="K34" s="56"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4575,10 +4572,10 @@
       <c r="D35" s="54"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
-      <c r="G35" s="218"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="207"/>
-      <c r="J35" s="208"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="173"/>
+      <c r="J35" s="174"/>
       <c r="K35" s="56"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4597,10 +4594,10 @@
       <c r="D36" s="54"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55"/>
-      <c r="G36" s="218"/>
-      <c r="H36" s="219"/>
-      <c r="I36" s="207"/>
-      <c r="J36" s="208"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="174"/>
       <c r="K36" s="56"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4619,10 +4616,10 @@
       <c r="D37" s="54"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55"/>
-      <c r="G37" s="218"/>
-      <c r="H37" s="219"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="208"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="174"/>
       <c r="K37" s="56"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4641,10 +4638,10 @@
       <c r="D38" s="54"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
-      <c r="G38" s="218"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="207"/>
-      <c r="J38" s="208"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="174"/>
       <c r="K38" s="56"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4663,10 +4660,10 @@
       <c r="D39" s="54"/>
       <c r="E39" s="55"/>
       <c r="F39" s="55"/>
-      <c r="G39" s="218"/>
-      <c r="H39" s="219"/>
-      <c r="I39" s="207"/>
-      <c r="J39" s="208"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="174"/>
       <c r="K39" s="56"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4685,18 +4682,18 @@
       <c r="D40" s="54"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
-      <c r="G40" s="213"/>
-      <c r="H40" s="213"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="208"/>
+      <c r="G40" s="176"/>
+      <c r="H40" s="176"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="174"/>
       <c r="K40" s="56"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="181" t="s">
+      <c r="A41" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="182"/>
-      <c r="C41" s="182"/>
+      <c r="B41" s="219"/>
+      <c r="C41" s="219"/>
       <c r="D41" s="57" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4709,27 +4706,27 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="223" t="e">
+      <c r="G41" s="179" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="224"/>
-      <c r="I41" s="221" t="e">
+      <c r="H41" s="180"/>
+      <c r="I41" s="177" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="222"/>
+      <c r="J41" s="178"/>
       <c r="K41" s="59" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
+      <c r="B42" s="221"/>
+      <c r="C42" s="221"/>
       <c r="D42" s="60">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4742,27 +4739,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="216">
+      <c r="G42" s="185">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="217"/>
-      <c r="I42" s="209">
+      <c r="H42" s="186"/>
+      <c r="I42" s="189">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="210"/>
+      <c r="J42" s="190"/>
       <c r="K42" s="62">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="177" t="s">
+      <c r="A43" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="178"/>
-      <c r="C43" s="178"/>
+      <c r="B43" s="216"/>
+      <c r="C43" s="216"/>
       <c r="D43" s="63">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4775,16 +4772,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="214">
+      <c r="G43" s="183">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="215"/>
-      <c r="I43" s="211">
+      <c r="H43" s="184"/>
+      <c r="I43" s="181">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="212"/>
+      <c r="J43" s="182"/>
       <c r="K43" s="65">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4794,8 +4791,8 @@
       <c r="A44" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="150"/>
       <c r="D44" s="38" t="s">
         <v>22</v>
       </c>
@@ -4812,8 +4809,8 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
+      <c r="B45" s="149"/>
+      <c r="C45" s="149"/>
       <c r="D45" s="38"/>
       <c r="F45" s="39"/>
       <c r="G45" s="40"/>
@@ -4822,15 +4819,15 @@
       <c r="J45" s="17"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="154" t="s">
+      <c r="A46" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="154"/>
-      <c r="C46" s="154"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="132"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G46" s="39">
         <f>Page1!G44</f>
@@ -4839,11 +4836,11 @@
       <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="154" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="154"/>
-      <c r="C47" s="154"/>
+      <c r="A47" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="132"/>
+      <c r="C47" s="132"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
@@ -4898,6 +4895,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G39:H39"/>
@@ -4914,84 +4989,6 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
@@ -5052,35 +5049,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -5101,15 +5098,15 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="204">
+      <c r="B4" s="153"/>
+      <c r="C4" s="208">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="180"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -5127,22 +5124,22 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="197">
+      <c r="J4" s="200">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="198"/>
+      <c r="K4" s="201"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="142"/>
-      <c r="C5" s="145">
+      <c r="B5" s="159"/>
+      <c r="C5" s="162">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="146"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -5160,79 +5157,79 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="199">
+      <c r="J5" s="202">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="200"/>
+      <c r="K5" s="203"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="155" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="140"/>
+      <c r="A6" s="133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="134"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="157"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="201"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="205"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="179" t="s">
+      <c r="A7" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="195"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="217" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="234" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="185"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="202"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="232"/>
+      <c r="G7" s="209"/>
+      <c r="H7" s="227" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="211"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="206"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="237" t="s">
+      <c r="A8" s="211"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="230" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="223" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="223" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="187" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="187" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="187" t="s">
+      <c r="G8" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="235"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="202"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="206"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="186"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="236"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="202"/>
+      <c r="A9" s="222"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="206"/>
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="82">
@@ -5252,9 +5249,9 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="202"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="206"/>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="85">
@@ -5274,9 +5271,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="202"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="206"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="85">
@@ -5296,9 +5293,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="185"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="202"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="206"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="85">
@@ -5318,9 +5315,9 @@
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="202"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="206"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="85">
@@ -5340,9 +5337,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="202"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="206"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="85">
@@ -5362,9 +5359,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="202"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="206"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="85">
@@ -5384,9 +5381,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="202"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="206"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="85">
@@ -5406,9 +5403,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="202"/>
+      <c r="I17" s="211"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="206"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="85">
@@ -5428,9 +5425,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="202"/>
+      <c r="I18" s="211"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="206"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="85">
@@ -5450,9 +5447,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="202"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="206"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
@@ -5472,9 +5469,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="185"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="202"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="197"/>
+      <c r="K20" s="206"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="85">
@@ -5494,9 +5491,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="194"/>
-      <c r="K21" s="202"/>
+      <c r="I21" s="211"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="206"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="85">
@@ -5516,9 +5513,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="202"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="206"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="85">
@@ -5538,9 +5535,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="202"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="206"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="85">
@@ -5560,9 +5557,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="194"/>
-      <c r="K24" s="202"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="206"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="85">
@@ -5582,9 +5579,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="194"/>
-      <c r="K25" s="202"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="206"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="85">
@@ -5604,9 +5601,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="185"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="202"/>
+      <c r="I26" s="211"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="206"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="85">
@@ -5626,9 +5623,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="202"/>
+      <c r="I27" s="211"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="206"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="85">
@@ -5648,9 +5645,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="202"/>
+      <c r="I28" s="211"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="206"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="85">
@@ -5670,9 +5667,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="27"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="185"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="202"/>
+      <c r="I29" s="211"/>
+      <c r="J29" s="197"/>
+      <c r="K29" s="206"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="91">
@@ -5692,9 +5689,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="27"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="202"/>
+      <c r="I30" s="211"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="206"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="85">
@@ -5714,9 +5711,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="27"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="185"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="202"/>
+      <c r="I31" s="211"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="206"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="85">
@@ -5736,9 +5733,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="185"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="202"/>
+      <c r="I32" s="211"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="206"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="85">
@@ -5758,9 +5755,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="202"/>
+      <c r="I33" s="211"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="206"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="85">
@@ -5780,9 +5777,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="202"/>
+      <c r="I34" s="211"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="206"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="85">
@@ -5802,9 +5799,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="202"/>
+      <c r="I35" s="211"/>
+      <c r="J35" s="197"/>
+      <c r="K35" s="206"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="85">
@@ -5824,9 +5821,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="202"/>
+      <c r="I36" s="211"/>
+      <c r="J36" s="197"/>
+      <c r="K36" s="206"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="85">
@@ -5846,9 +5843,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="185"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="202"/>
+      <c r="I37" s="211"/>
+      <c r="J37" s="197"/>
+      <c r="K37" s="206"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="85">
@@ -5868,9 +5865,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="202"/>
+      <c r="I38" s="211"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="206"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="92">
@@ -5890,16 +5887,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="185"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="202"/>
+      <c r="I39" s="211"/>
+      <c r="J39" s="197"/>
+      <c r="K39" s="206"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="226" t="s">
+      <c r="A40" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="227"/>
-      <c r="C40" s="228"/>
+      <c r="B40" s="234"/>
+      <c r="C40" s="235"/>
       <c r="D40" s="29" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -5920,16 +5917,16 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="185"/>
-      <c r="J40" s="194"/>
-      <c r="K40" s="202"/>
+      <c r="I40" s="211"/>
+      <c r="J40" s="197"/>
+      <c r="K40" s="206"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="163" t="s">
+      <c r="A41" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="164"/>
-      <c r="C41" s="165"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="145"/>
       <c r="D41" s="32">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -5950,16 +5947,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="185"/>
-      <c r="J41" s="194"/>
-      <c r="K41" s="202"/>
+      <c r="I41" s="211"/>
+      <c r="J41" s="197"/>
+      <c r="K41" s="206"/>
     </row>
     <row r="42" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="229" t="s">
+      <c r="A42" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="230"/>
-      <c r="C42" s="231"/>
+      <c r="B42" s="237"/>
+      <c r="C42" s="238"/>
       <c r="D42" s="35">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -5980,16 +5977,16 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="186"/>
-      <c r="J42" s="196"/>
-      <c r="K42" s="203"/>
+      <c r="I42" s="222"/>
+      <c r="J42" s="199"/>
+      <c r="K42" s="207"/>
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="150"/>
       <c r="D43" s="38" t="s">
         <v>22</v>
       </c>
@@ -6006,8 +6003,8 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
+      <c r="B44" s="149"/>
+      <c r="C44" s="149"/>
       <c r="D44" s="38"/>
       <c r="F44" s="39"/>
       <c r="G44" s="40"/>
@@ -6016,15 +6013,15 @@
       <c r="J44" s="17"/>
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="154" t="s">
+      <c r="A45" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="154"/>
-      <c r="C45" s="154"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G45" s="39">
         <f>Page1!G44</f>
@@ -6033,11 +6030,11 @@
       <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="154" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" s="154"/>
-      <c r="C46" s="154"/>
+      <c r="A46" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="132"/>
+      <c r="C46" s="132"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
@@ -6062,6 +6059,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="A1:J1"/>
@@ -6078,15 +6084,6 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="notBetween">
@@ -6125,7 +6122,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6138,15 +6135,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="299" t="s">
+      <c r="A1" s="239" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="301"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="241"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="99"/>
@@ -6160,37 +6157,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="306" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="307"/>
-      <c r="C3" s="307"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="307"/>
-      <c r="F3" s="307"/>
-      <c r="G3" s="308"/>
+      <c r="A3" s="250" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="252"/>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="202"/>
+      <c r="B4" s="197"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="206"/>
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="302" t="s">
+      <c r="A5" s="242" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="303"/>
-      <c r="C5" s="303"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="304"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="244"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
@@ -6202,130 +6199,131 @@
       <c r="C6" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="258" t="s">
+      <c r="D6" s="245">
+        <f>Page1!H4</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="246"/>
+      <c r="F6" s="247" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="260"/>
-      <c r="F6" s="279" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="283">
+      <c r="G6" s="248">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="106"/>
       <c r="C7" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="258">
+        <v>51</v>
+      </c>
+      <c r="D7" s="245">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="260"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="305"/>
+      <c r="E7" s="246"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="249"/>
     </row>
     <row r="8" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="105">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
       <c r="C8" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="279">
+        <v>53</v>
+      </c>
+      <c r="D8" s="247">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="279"/>
-      <c r="F8" s="280" t="s">
+      <c r="E8" s="247"/>
+      <c r="F8" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="283">
+      <c r="G8" s="248">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="108" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="107">
         <f>Page1!G44</f>
         <v>461303700</v>
       </c>
-      <c r="C9" s="280" t="s">
+      <c r="C9" s="262" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="267" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="286" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="287"/>
-      <c r="F9" s="281"/>
-      <c r="G9" s="284"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="265"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="110">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="282"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="285"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="264"/>
+      <c r="G10" s="266"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="290" t="s">
+      <c r="A11" s="253" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="255" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="292" t="s">
+      <c r="C11" s="257" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="258"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="255" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="294" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="295"/>
-      <c r="E11" s="296"/>
-      <c r="F11" s="292" t="s">
+      <c r="G11" s="260" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="297" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="254"/>
+      <c r="B12" s="256"/>
+      <c r="C12" s="111" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="291"/>
-      <c r="B12" s="293"/>
-      <c r="C12" s="111" t="s">
+      <c r="D12" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="E12" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="111" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="293"/>
-      <c r="G12" s="298"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="261"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="112" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="113" t="s">
         <v>66</v>
-      </c>
-      <c r="B13" s="113" t="s">
-        <v>67</v>
       </c>
       <c r="C13" s="114">
         <v>17</v>
@@ -6341,15 +6339,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G13" s="95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="117" t="s">
         <v>69</v>
-      </c>
-      <c r="B14" s="117" t="s">
-        <v>70</v>
       </c>
       <c r="C14" s="118">
         <v>18</v>
@@ -6365,15 +6363,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G14" s="120" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="117" t="s">
         <v>72</v>
-      </c>
-      <c r="B15" s="117" t="s">
-        <v>73</v>
       </c>
       <c r="C15" s="118">
         <v>300</v>
@@ -6388,16 +6386,16 @@
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="275" t="s">
-        <v>74</v>
+      <c r="G15" s="271" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="117" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="118">
         <v>300</v>
@@ -6412,14 +6410,14 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="235"/>
+      <c r="G16" s="228"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="117" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="118">
         <v>900</v>
@@ -6434,14 +6432,14 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="235"/>
+      <c r="G17" s="228"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="118">
         <v>700</v>
@@ -6456,14 +6454,14 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="235"/>
+      <c r="G18" s="228"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="117" t="s">
         <v>78</v>
-      </c>
-      <c r="B19" s="117" t="s">
-        <v>79</v>
       </c>
       <c r="C19" s="118">
         <v>350</v>
@@ -6478,14 +6476,14 @@
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="235"/>
+      <c r="G19" s="228"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="116" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="117" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="118">
         <v>400</v>
@@ -6500,11 +6498,11 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="235"/>
+      <c r="G20" s="228"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="117" t="s">
         <v>40</v>
@@ -6522,11 +6520,11 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="235"/>
+      <c r="G21" s="228"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="117" t="s">
         <v>40</v>
@@ -6544,14 +6542,14 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="149"/>
+      <c r="G22" s="166"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="116" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="117" t="s">
         <v>83</v>
-      </c>
-      <c r="B23" s="117" t="s">
-        <v>84</v>
       </c>
       <c r="C23" s="61">
         <v>360</v>
@@ -6567,15 +6565,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G23" s="120" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="117" t="s">
         <v>86</v>
-      </c>
-      <c r="B24" s="117" t="s">
-        <v>87</v>
       </c>
       <c r="C24" s="118" t="s">
         <v>40</v>
@@ -6593,15 +6591,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="120" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="117" t="s">
         <v>89</v>
-      </c>
-      <c r="B25" s="117" t="s">
-        <v>90</v>
       </c>
       <c r="C25" s="61">
         <v>6000</v>
@@ -6616,15 +6614,15 @@
         <v>6000</v>
       </c>
       <c r="G25" s="120" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="96">
         <v>410</v>
@@ -6640,12 +6638,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G26" s="121" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="272" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="273"/>
       <c r="C27" s="273"/>
@@ -6655,127 +6653,127 @@
       <c r="G27" s="274"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="256" t="s">
+      <c r="A28" s="275" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="276"/>
+      <c r="C28" s="277" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="257"/>
-      <c r="C28" s="276" t="s">
+      <c r="D28" s="278"/>
+      <c r="E28" s="279"/>
+      <c r="F28" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="277"/>
-      <c r="E28" s="278"/>
-      <c r="F28" s="125" t="s">
+      <c r="G28" s="95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="280" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="246"/>
+      <c r="C29" s="281" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="282"/>
+      <c r="E29" s="283"/>
+      <c r="F29" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="95" t="s">
+    </row>
+    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="280" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="246"/>
+      <c r="C30" s="281" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="282"/>
+      <c r="E30" s="283"/>
+      <c r="F30" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="280" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="246"/>
+      <c r="C31" s="281" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="282"/>
+      <c r="E31" s="283"/>
+      <c r="F31" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="120" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="280" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="246"/>
+      <c r="C32" s="281" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="282"/>
+      <c r="E32" s="283"/>
+      <c r="F32" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="120" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="280" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="246"/>
+      <c r="C33" s="281" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="282"/>
+      <c r="E33" s="283"/>
+      <c r="F33" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="120" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="261" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="260"/>
-      <c r="C29" s="266" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="267"/>
-      <c r="E29" s="268"/>
-      <c r="F29" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="120" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="261" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="260"/>
-      <c r="C30" s="266" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="267"/>
-      <c r="E30" s="268"/>
-      <c r="F30" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="95" t="s">
+    <row r="34" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="158" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="159"/>
+      <c r="C34" s="286" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="287"/>
+      <c r="E34" s="288"/>
+      <c r="F34" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="131" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="261" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="260"/>
-      <c r="C31" s="266" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="267"/>
-      <c r="E31" s="268"/>
-      <c r="F31" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="120" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="261" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="260"/>
-      <c r="C32" s="266" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="267"/>
-      <c r="E32" s="268"/>
-      <c r="F32" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" s="120" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="261" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="260"/>
-      <c r="C33" s="266" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="267"/>
-      <c r="E33" s="268"/>
-      <c r="F33" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="120" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="141" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="142"/>
-      <c r="C34" s="269" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="270"/>
-      <c r="E34" s="271"/>
-      <c r="F34" s="126" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" s="131" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="272" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" s="273"/>
       <c r="C35" s="273"/>
@@ -6785,168 +6783,162 @@
       <c r="G35" s="274"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="133" t="s">
+      <c r="A36" s="152" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="153"/>
+      <c r="C36" s="284" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="285"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="275" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="134"/>
-      <c r="C36" s="264" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="265"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="10" t="s">
+      <c r="B37" s="276"/>
+      <c r="C37" s="245" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="289"/>
+      <c r="E37" s="246"/>
+      <c r="F37" s="118" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="95" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="256" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="257"/>
-      <c r="C37" s="258" t="s">
+    </row>
+    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="280" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="259"/>
-      <c r="E37" s="260"/>
-      <c r="F37" s="118" t="s">
+      <c r="B38" s="246"/>
+      <c r="C38" s="245" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="289"/>
+      <c r="E38" s="246"/>
+      <c r="F38" s="118" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="G37" s="120" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="261" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="260"/>
-      <c r="C38" s="258" t="s">
+    </row>
+    <row r="39" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="158" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="259"/>
-      <c r="E38" s="260"/>
-      <c r="F38" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="120" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="141" t="s">
+      <c r="B39" s="159"/>
+      <c r="C39" s="290" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="142"/>
-      <c r="C39" s="262" t="s">
+      <c r="D39" s="291"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="121" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="295" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="263"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="121" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="242" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="243"/>
-      <c r="C40" s="244" t="s">
+      <c r="B40" s="296"/>
+      <c r="C40" s="297" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="298"/>
+      <c r="E40" s="299"/>
+      <c r="F40" s="297" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="245"/>
-      <c r="E40" s="246"/>
-      <c r="F40" s="244" t="s">
+      <c r="G40" s="299"/>
+    </row>
+    <row r="41" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="303"/>
+      <c r="B41" s="304"/>
+      <c r="C41" s="211"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="206"/>
+      <c r="F41" s="307"/>
+      <c r="G41" s="308"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="305"/>
+      <c r="B42" s="306"/>
+      <c r="C42" s="300" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="302"/>
+      <c r="E42" s="301"/>
+      <c r="F42" s="300" t="s">
         <v>137</v>
       </c>
-      <c r="G40" s="246"/>
-    </row>
-    <row r="41" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="250"/>
-      <c r="B41" s="251"/>
-      <c r="C41" s="185"/>
-      <c r="D41" s="194"/>
-      <c r="E41" s="202"/>
-      <c r="F41" s="254"/>
-      <c r="G41" s="255"/>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="252"/>
-      <c r="B42" s="253"/>
-      <c r="C42" s="247" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="249"/>
-      <c r="E42" s="248"/>
-      <c r="F42" s="247" t="s">
-        <v>138</v>
-      </c>
-      <c r="G42" s="248"/>
+      <c r="G42" s="301"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="127"/>
       <c r="B43" s="127"/>
       <c r="C43" s="127"/>
       <c r="D43" s="127"/>
-      <c r="E43" s="240"/>
-      <c r="F43" s="240"/>
-      <c r="G43" s="240"/>
+      <c r="E43" s="293"/>
+      <c r="F43" s="293"/>
+      <c r="G43" s="293"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" s="128"/>
       <c r="C44" s="129"/>
       <c r="D44" s="127"/>
-      <c r="E44" s="241"/>
-      <c r="F44" s="241"/>
-      <c r="G44" s="241"/>
+      <c r="E44" s="294"/>
+      <c r="F44" s="294"/>
+      <c r="G44" s="294"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="239" t="s">
+      <c r="A46" s="292" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="292"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="292" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="239"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="239" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="239"/>
+      <c r="B47" s="292"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="A30:B30"/>
@@ -6960,24 +6952,30 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.78740157480314965" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-18gsm-290P-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-290P-ABQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F1B483-2DC0-416F-82E3-BEE978F82596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503B9494-A7D7-4CE2-A69E-0B5FB72C200C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1428,7 +1428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2370,15 +2370,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2391,10 +2382,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6122,7 +6125,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6865,27 +6868,27 @@
       </c>
       <c r="G40" s="299"/>
     </row>
-    <row r="41" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="303"/>
-      <c r="B41" s="304"/>
-      <c r="C41" s="211"/>
-      <c r="D41" s="197"/>
-      <c r="E41" s="206"/>
-      <c r="F41" s="307"/>
-      <c r="G41" s="308"/>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="305"/>
-      <c r="B42" s="306"/>
-      <c r="C42" s="300" t="s">
+    <row r="41" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="300"/>
+      <c r="B41" s="301"/>
+      <c r="C41" s="304"/>
+      <c r="D41" s="305"/>
+      <c r="E41" s="306"/>
+      <c r="F41" s="304"/>
+      <c r="G41" s="306"/>
+    </row>
+    <row r="42" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="302"/>
+      <c r="B42" s="303"/>
+      <c r="C42" s="307" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="302"/>
-      <c r="E42" s="301"/>
-      <c r="F42" s="300" t="s">
+      <c r="D42" s="308"/>
+      <c r="E42" s="309"/>
+      <c r="F42" s="307" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="301"/>
+      <c r="G42" s="309"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="127"/>

--- a/backend/templates/UC-18gsm-290P-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-290P-ABQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503B9494-A7D7-4CE2-A69E-0B5FB72C200C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049F5107-FBBB-4BFE-AFA6-1EDB3643581E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,7 +623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1411,24 +1411,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1707,21 +1694,12 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1735,9 +1713,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="57" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1876,33 +1851,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2112,30 +2060,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2145,12 +2069,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2160,32 +2078,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2370,6 +2264,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2391,13 +2294,85 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2959,7 +2934,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2973,35 +2948,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -3022,12 +2997,12 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="161"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3039,19 +3014,19 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="167"/>
-      <c r="K4" s="168"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="155"/>
       <c r="M4" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="163"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="150"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3063,64 +3038,64 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="169"/>
-      <c r="K5" s="170"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="157"/>
     </row>
     <row r="6" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="135"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="131"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="156"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="165"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="152"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137" t="s">
+      <c r="A7" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="154" t="s">
+      <c r="H7" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="166"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="153"/>
     </row>
     <row r="8" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="138"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139" t="s">
+      <c r="A8" s="134"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="139"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3522,11 +3497,11 @@
       <c r="K38" s="72"/>
     </row>
     <row r="39" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="146" t="s">
+      <c r="A39" s="279" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="147"/>
-      <c r="C39" s="148"/>
+      <c r="B39" s="280"/>
+      <c r="C39" s="281"/>
       <c r="D39" s="30" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3561,11 +3536,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="143" t="s">
+      <c r="A40" s="282" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="144"/>
-      <c r="C40" s="145"/>
+      <c r="B40" s="283"/>
+      <c r="C40" s="284"/>
       <c r="D40" s="33">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3600,11 +3575,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="140" t="s">
+      <c r="A41" s="285" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="141"/>
-      <c r="C41" s="142"/>
+      <c r="B41" s="286"/>
+      <c r="C41" s="287"/>
       <c r="D41" s="79">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3645,8 +3620,8 @@
       <c r="A42" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="150"/>
-      <c r="C42" s="150"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
       <c r="D42" s="38" t="s">
         <v>22</v>
       </c>
@@ -3663,8 +3638,8 @@
     </row>
     <row r="43" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
-      <c r="B43" s="149"/>
-      <c r="C43" s="149"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
       <c r="D43" s="38"/>
       <c r="F43" s="39"/>
       <c r="G43" s="40"/>
@@ -3673,11 +3648,11 @@
       <c r="J43" s="17"/>
     </row>
     <row r="44" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="132" t="s">
+      <c r="A44" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="128"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
       <c r="F44" s="40" t="s">
@@ -3689,11 +3664,11 @@
       <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="132" t="s">
+      <c r="A45" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="128"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
@@ -3807,7 +3782,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:J22"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3818,35 +3793,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -3867,22 +3842,22 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="153">
+      <c r="B4" s="140">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="208">
+      <c r="C4" s="195">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="209"/>
+      <c r="D4" s="196"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="130">
+      <c r="F4" s="126">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
@@ -3896,29 +3871,29 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="200">
+      <c r="J4" s="187">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="201"/>
+      <c r="K4" s="188"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="159">
+      <c r="B5" s="146">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="149">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="163"/>
+      <c r="D5" s="150"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="97">
+      <c r="F5" s="93">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
@@ -3932,104 +3907,104 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="202">
+      <c r="J5" s="189">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="203"/>
+      <c r="K5" s="190"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="212" t="s">
+      <c r="A6" s="199" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="192"/>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="179"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="195"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="217" t="s">
+      <c r="A7" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="182"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="195"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="193" t="s">
+      <c r="E7" s="182"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="193" t="s">
+      <c r="H7" s="182"/>
+      <c r="I7" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="194"/>
-      <c r="K7" s="205" t="s">
+      <c r="J7" s="181"/>
+      <c r="K7" s="192" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="211"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="211" t="s">
+      <c r="A8" s="198"/>
+      <c r="B8" s="288"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="288" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="223" t="s">
+      <c r="E8" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="204" t="s">
+      <c r="F8" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="196" t="s">
+      <c r="G8" s="183"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="J8" s="204"/>
-      <c r="K8" s="206"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="193"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="211"/>
-      <c r="B9" s="197"/>
-      <c r="C9" s="197"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="197"/>
+      <c r="A9" s="198"/>
+      <c r="B9" s="288"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="184"/>
       <c r="I9" s="47" t="s">
         <v>127</v>
       </c>
       <c r="J9" s="48">
         <v>290</v>
       </c>
-      <c r="K9" s="206"/>
+      <c r="K9" s="193"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="211"/>
-      <c r="B10" s="197"/>
-      <c r="C10" s="197"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="199"/>
+      <c r="A10" s="198"/>
+      <c r="B10" s="288"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="186"/>
       <c r="I10" s="49" t="s">
         <v>128</v>
       </c>
       <c r="J10" s="50">
         <v>293</v>
       </c>
-      <c r="K10" s="207"/>
+      <c r="K10" s="194"/>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82">
@@ -4040,663 +4015,663 @@
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="289">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
       <c r="F11" s="52"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="188"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="175"/>
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85">
+      <c r="A12" s="84">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="85">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="290">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="174"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="161"/>
       <c r="K12" s="56"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="85">
+      <c r="A13" s="84">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B13" s="86">
+      <c r="B13" s="85">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C13" s="88">
+      <c r="C13" s="291">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
       <c r="D13" s="54"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="174"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="161"/>
       <c r="K13" s="56"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="85">
+      <c r="A14" s="84">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B14" s="89">
+      <c r="B14" s="86">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C14" s="291">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="174"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="161"/>
       <c r="K14" s="56"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="85">
+      <c r="A15" s="84">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B15" s="86">
+      <c r="B15" s="85">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="290">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="174"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="161"/>
       <c r="K15" s="56"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="85">
+      <c r="A16" s="84">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B16" s="86">
+      <c r="B16" s="85">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="290">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="174"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="161"/>
       <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="85">
+      <c r="A17" s="84">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B17" s="86">
+      <c r="B17" s="85">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="87">
+      <c r="C17" s="290">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
       <c r="D17" s="54"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="174"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="161"/>
       <c r="K17" s="56"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85">
+      <c r="A18" s="84">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B18" s="86">
+      <c r="B18" s="85">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C18" s="87">
+      <c r="C18" s="290">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
       <c r="D18" s="54"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="174"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="161"/>
       <c r="K18" s="56"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="85">
+      <c r="A19" s="84">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B19" s="90">
+      <c r="B19" s="87">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C19" s="87">
+      <c r="C19" s="290">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
       <c r="D19" s="54"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="174"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="161"/>
       <c r="K19" s="56"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="85">
+      <c r="A20" s="84">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B20" s="86">
+      <c r="B20" s="85">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C20" s="87">
+      <c r="C20" s="290">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
       <c r="D20" s="54"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="174"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="161"/>
       <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="91">
+      <c r="A21" s="88">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B21" s="90">
+      <c r="B21" s="87">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="88">
+      <c r="C21" s="291">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
       <c r="D21" s="54"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="174"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="161"/>
       <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85">
+      <c r="A22" s="84">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B22" s="86">
+      <c r="B22" s="85">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C22" s="87">
+      <c r="C22" s="290">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
       <c r="D22" s="54"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="174"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="161"/>
       <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85">
+      <c r="A23" s="84">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B23" s="86">
+      <c r="B23" s="85">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C23" s="88">
+      <c r="C23" s="291">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
       <c r="D23" s="54"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="174"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="161"/>
       <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="85">
+      <c r="A24" s="84">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B24" s="89">
+      <c r="B24" s="86">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C24" s="88">
+      <c r="C24" s="291">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="174"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="161"/>
       <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="85">
+      <c r="A25" s="84">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B25" s="86">
+      <c r="B25" s="85">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C25" s="87">
+      <c r="C25" s="290">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
       <c r="D25" s="54"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="174"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="161"/>
       <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85">
+      <c r="A26" s="84">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B26" s="86">
+      <c r="B26" s="85">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="87">
+      <c r="C26" s="290">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
       <c r="D26" s="54"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="174"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="161"/>
       <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="85">
+      <c r="A27" s="84">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B27" s="86">
+      <c r="B27" s="85">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C27" s="87">
+      <c r="C27" s="290">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
       <c r="D27" s="54"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="174"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="161"/>
       <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="85">
+      <c r="A28" s="84">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B28" s="86">
+      <c r="B28" s="85">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C28" s="87">
+      <c r="C28" s="290">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
       <c r="D28" s="54"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="174"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="161"/>
       <c r="K28" s="56"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="85">
+      <c r="A29" s="84">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B29" s="90">
+      <c r="B29" s="87">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C29" s="87">
+      <c r="C29" s="290">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
       <c r="D29" s="54"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="174"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="161"/>
       <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="85">
+      <c r="A30" s="84">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B30" s="86">
+      <c r="B30" s="85">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C30" s="87">
+      <c r="C30" s="290">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
       <c r="D30" s="54"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="174"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="161"/>
       <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="91">
+      <c r="A31" s="88">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B31" s="90">
+      <c r="B31" s="87">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C31" s="88">
+      <c r="C31" s="291">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
       <c r="D31" s="54"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="174"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="161"/>
       <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="85">
+      <c r="A32" s="84">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B32" s="86">
+      <c r="B32" s="85">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C32" s="87">
+      <c r="C32" s="290">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
       <c r="D32" s="54"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="174"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="161"/>
       <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="85">
+      <c r="A33" s="84">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B33" s="86">
+      <c r="B33" s="85">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C33" s="88">
+      <c r="C33" s="291">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
       <c r="D33" s="54"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="174"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="161"/>
       <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="85">
+      <c r="A34" s="84">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B34" s="89">
+      <c r="B34" s="86">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C34" s="88">
+      <c r="C34" s="291">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
       <c r="D34" s="54"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="174"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="161"/>
       <c r="K34" s="56"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="85">
+      <c r="A35" s="84">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B35" s="86">
+      <c r="B35" s="85">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C35" s="87">
+      <c r="C35" s="290">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
       <c r="D35" s="54"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="174"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="161"/>
       <c r="K35" s="56"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="85">
+      <c r="A36" s="84">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B36" s="86">
+      <c r="B36" s="85">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C36" s="87">
+      <c r="C36" s="290">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
       <c r="D36" s="54"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="174"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="161"/>
       <c r="K36" s="56"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="85">
+      <c r="A37" s="84">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B37" s="86">
+      <c r="B37" s="85">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C37" s="87">
+      <c r="C37" s="290">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
       <c r="D37" s="54"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="174"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="161"/>
       <c r="K37" s="56"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="85">
+      <c r="A38" s="84">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B38" s="86">
+      <c r="B38" s="85">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C38" s="87">
+      <c r="C38" s="290">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
       <c r="D38" s="54"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="174"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="161"/>
       <c r="K38" s="56"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="85">
+      <c r="A39" s="84">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B39" s="86">
+      <c r="B39" s="85">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C39" s="87">
+      <c r="C39" s="290">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
       <c r="D39" s="54"/>
       <c r="E39" s="55"/>
       <c r="F39" s="55"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="174"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="159"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="161"/>
       <c r="K39" s="56"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="92">
+      <c r="A40" s="89">
         <f>Page1!A38</f>
         <v>0</v>
       </c>
-      <c r="B40" s="93">
+      <c r="B40" s="90">
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C40" s="94">
+      <c r="C40" s="292">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
       <c r="D40" s="54"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
-      <c r="G40" s="176"/>
-      <c r="H40" s="176"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="174"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="161"/>
       <c r="K40" s="56"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="218" t="s">
+      <c r="A41" s="293" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="219"/>
-      <c r="C41" s="219"/>
+      <c r="B41" s="294"/>
+      <c r="C41" s="294"/>
       <c r="D41" s="57" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4709,27 +4684,27 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="179" t="e">
+      <c r="G41" s="166" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="180"/>
-      <c r="I41" s="177" t="e">
+      <c r="H41" s="167"/>
+      <c r="I41" s="164" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="178"/>
+      <c r="J41" s="165"/>
       <c r="K41" s="59" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="220" t="s">
+      <c r="A42" s="295" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="221"/>
-      <c r="C42" s="221"/>
+      <c r="B42" s="296"/>
+      <c r="C42" s="296"/>
       <c r="D42" s="60">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4742,27 +4717,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="185">
+      <c r="G42" s="172">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="186"/>
-      <c r="I42" s="189">
+      <c r="H42" s="173"/>
+      <c r="I42" s="176">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="190"/>
+      <c r="J42" s="177"/>
       <c r="K42" s="62">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="215" t="s">
+      <c r="A43" s="297" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="216"/>
-      <c r="C43" s="216"/>
+      <c r="B43" s="298"/>
+      <c r="C43" s="298"/>
       <c r="D43" s="63">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4775,16 +4750,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="183">
+      <c r="G43" s="170">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="184"/>
-      <c r="I43" s="181">
+      <c r="H43" s="171"/>
+      <c r="I43" s="168">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="182"/>
+      <c r="J43" s="169"/>
       <c r="K43" s="65">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4794,8 +4769,8 @@
       <c r="A44" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="150"/>
-      <c r="C44" s="150"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="137"/>
       <c r="D44" s="38" t="s">
         <v>22</v>
       </c>
@@ -4812,8 +4787,8 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
-      <c r="B45" s="149"/>
-      <c r="C45" s="149"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
       <c r="D45" s="38"/>
       <c r="F45" s="39"/>
       <c r="G45" s="40"/>
@@ -4822,11 +4797,11 @@
       <c r="J45" s="17"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="132"/>
-      <c r="C46" s="132"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="128"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="40" t="s">
@@ -4839,11 +4814,11 @@
       <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="132" t="s">
+      <c r="A47" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="132"/>
-      <c r="C47" s="132"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="128"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
@@ -5041,7 +5016,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:K42"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5052,35 +5027,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -5101,19 +5076,19 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="208">
+      <c r="B4" s="140"/>
+      <c r="C4" s="195">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="209"/>
+      <c r="D4" s="196"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="130">
+      <c r="F4" s="126">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
@@ -5127,26 +5102,26 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="200">
+      <c r="J4" s="187">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="201"/>
+      <c r="K4" s="188"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="162">
+      <c r="B5" s="146"/>
+      <c r="C5" s="149">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="163"/>
+      <c r="D5" s="150"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="97">
+      <c r="F5" s="93">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
@@ -5160,79 +5135,79 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="202">
+      <c r="J5" s="189">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="203"/>
+      <c r="K5" s="190"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="225"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="157"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="205"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="192"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="195"/>
-      <c r="C7" s="205"/>
-      <c r="D7" s="217" t="s">
+      <c r="A7" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="182"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="232"/>
-      <c r="F7" s="232"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="227" t="s">
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="204" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="211"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="206"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="193"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="211"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="230" t="s">
+      <c r="A8" s="198"/>
+      <c r="B8" s="288"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="299" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="223" t="s">
+      <c r="E8" s="202" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="223" t="s">
+      <c r="F8" s="202" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="223" t="s">
+      <c r="G8" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="228"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="206"/>
+      <c r="H8" s="205"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="193"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="222"/>
-      <c r="B9" s="199"/>
-      <c r="C9" s="207"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="229"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="206"/>
+      <c r="A9" s="201"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="206"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="193"/>
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="82">
@@ -5243,7 +5218,7 @@
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="289">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
@@ -5252,20 +5227,20 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="206"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="193"/>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="85">
+      <c r="A11" s="84">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B11" s="86">
+      <c r="B11" s="85">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="290">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
@@ -5274,20 +5249,20 @@
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="206"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="193"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85">
+      <c r="A12" s="84">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="85">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="88">
+      <c r="C12" s="291">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
@@ -5296,20 +5271,20 @@
       <c r="F12" s="26"/>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="206"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="193"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="85">
+      <c r="A13" s="84">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B13" s="89">
+      <c r="B13" s="86">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="88">
+      <c r="C13" s="291">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
@@ -5318,20 +5293,20 @@
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="206"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="193"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="85">
+      <c r="A14" s="84">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B14" s="86">
+      <c r="B14" s="85">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="290">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
@@ -5340,20 +5315,20 @@
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="211"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="206"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="193"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="85">
+      <c r="A15" s="84">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="86">
+      <c r="B15" s="85">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="290">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
@@ -5362,20 +5337,20 @@
       <c r="F15" s="26"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="206"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="193"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="85">
+      <c r="A16" s="84">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B16" s="86">
+      <c r="B16" s="85">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="290">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
@@ -5384,20 +5359,20 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="206"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="184"/>
+      <c r="K16" s="193"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="85">
+      <c r="A17" s="84">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="86">
+      <c r="B17" s="85">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="87">
+      <c r="C17" s="290">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
@@ -5406,20 +5381,20 @@
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="211"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="206"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="184"/>
+      <c r="K17" s="193"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85">
+      <c r="A18" s="84">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="90">
+      <c r="B18" s="87">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="87">
+      <c r="C18" s="290">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
@@ -5428,20 +5403,20 @@
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="206"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="193"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="85">
+      <c r="A19" s="84">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B19" s="86">
+      <c r="B19" s="85">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="87">
+      <c r="C19" s="290">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
@@ -5450,20 +5425,20 @@
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="206"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="184"/>
+      <c r="K19" s="193"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91">
+      <c r="A20" s="88">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B20" s="90">
+      <c r="B20" s="87">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="88">
+      <c r="C20" s="291">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
@@ -5472,20 +5447,20 @@
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="211"/>
-      <c r="J20" s="197"/>
-      <c r="K20" s="206"/>
+      <c r="I20" s="198"/>
+      <c r="J20" s="184"/>
+      <c r="K20" s="193"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="85">
+      <c r="A21" s="84">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B21" s="86">
+      <c r="B21" s="85">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C21" s="87">
+      <c r="C21" s="290">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
@@ -5494,20 +5469,20 @@
       <c r="F21" s="26"/>
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="211"/>
-      <c r="J21" s="197"/>
-      <c r="K21" s="206"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="184"/>
+      <c r="K21" s="193"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85">
+      <c r="A22" s="84">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B22" s="86">
+      <c r="B22" s="85">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C22" s="88">
+      <c r="C22" s="291">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
@@ -5516,20 +5491,20 @@
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="206"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="184"/>
+      <c r="K22" s="193"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85">
+      <c r="A23" s="84">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B23" s="89">
+      <c r="B23" s="86">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C23" s="88">
+      <c r="C23" s="291">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
@@ -5538,20 +5513,20 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="206"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="184"/>
+      <c r="K23" s="193"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="85">
+      <c r="A24" s="84">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B24" s="86">
+      <c r="B24" s="85">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="87">
+      <c r="C24" s="290">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
@@ -5560,20 +5535,20 @@
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="197"/>
-      <c r="K24" s="206"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="184"/>
+      <c r="K24" s="193"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="85">
+      <c r="A25" s="84">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B25" s="86">
+      <c r="B25" s="85">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="87">
+      <c r="C25" s="290">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
@@ -5582,20 +5557,20 @@
       <c r="F25" s="26"/>
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="197"/>
-      <c r="K25" s="206"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="184"/>
+      <c r="K25" s="193"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85">
+      <c r="A26" s="84">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B26" s="86">
+      <c r="B26" s="85">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="87">
+      <c r="C26" s="290">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
@@ -5604,20 +5579,20 @@
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="211"/>
-      <c r="J26" s="197"/>
-      <c r="K26" s="206"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="184"/>
+      <c r="K26" s="193"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="85">
+      <c r="A27" s="84">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B27" s="86">
+      <c r="B27" s="85">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="87">
+      <c r="C27" s="290">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
@@ -5626,20 +5601,20 @@
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="211"/>
-      <c r="J27" s="197"/>
-      <c r="K27" s="206"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="184"/>
+      <c r="K27" s="193"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="85">
+      <c r="A28" s="84">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B28" s="90">
+      <c r="B28" s="87">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C28" s="87">
+      <c r="C28" s="290">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
@@ -5648,20 +5623,20 @@
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="211"/>
-      <c r="J28" s="197"/>
-      <c r="K28" s="206"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="193"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="85">
+      <c r="A29" s="84">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B29" s="86">
+      <c r="B29" s="85">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="87">
+      <c r="C29" s="290">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
@@ -5670,20 +5645,20 @@
       <c r="F29" s="26"/>
       <c r="G29" s="27"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="211"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="206"/>
+      <c r="I29" s="198"/>
+      <c r="J29" s="184"/>
+      <c r="K29" s="193"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="91">
+      <c r="A30" s="88">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B30" s="90">
+      <c r="B30" s="87">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="88">
+      <c r="C30" s="291">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
@@ -5692,20 +5667,20 @@
       <c r="F30" s="26"/>
       <c r="G30" s="27"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="211"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="206"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="184"/>
+      <c r="K30" s="193"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="85">
+      <c r="A31" s="84">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B31" s="86">
+      <c r="B31" s="85">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="87">
+      <c r="C31" s="290">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
@@ -5714,20 +5689,20 @@
       <c r="F31" s="26"/>
       <c r="G31" s="27"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="211"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="206"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="184"/>
+      <c r="K31" s="193"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="85">
+      <c r="A32" s="84">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B32" s="86">
+      <c r="B32" s="85">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="88">
+      <c r="C32" s="291">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
@@ -5736,20 +5711,20 @@
       <c r="F32" s="26"/>
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="211"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="206"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="193"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="85">
+      <c r="A33" s="84">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B33" s="89">
+      <c r="B33" s="86">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C33" s="88">
+      <c r="C33" s="291">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
@@ -5758,20 +5733,20 @@
       <c r="F33" s="26"/>
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="211"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="206"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="193"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="85">
+      <c r="A34" s="84">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B34" s="86">
+      <c r="B34" s="85">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="87">
+      <c r="C34" s="290">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
@@ -5780,20 +5755,20 @@
       <c r="F34" s="26"/>
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="211"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="206"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="184"/>
+      <c r="K34" s="193"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="85">
+      <c r="A35" s="84">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B35" s="86">
+      <c r="B35" s="85">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="87">
+      <c r="C35" s="290">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
@@ -5802,20 +5777,20 @@
       <c r="F35" s="26"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="211"/>
-      <c r="J35" s="197"/>
-      <c r="K35" s="206"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="184"/>
+      <c r="K35" s="193"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="85">
+      <c r="A36" s="84">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B36" s="86">
+      <c r="B36" s="85">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C36" s="87">
+      <c r="C36" s="290">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
@@ -5824,20 +5799,20 @@
       <c r="F36" s="26"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="211"/>
-      <c r="J36" s="197"/>
-      <c r="K36" s="206"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="184"/>
+      <c r="K36" s="193"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="85">
+      <c r="A37" s="84">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B37" s="86">
+      <c r="B37" s="85">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="87">
+      <c r="C37" s="290">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
@@ -5846,20 +5821,20 @@
       <c r="F37" s="26"/>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="211"/>
-      <c r="J37" s="197"/>
-      <c r="K37" s="206"/>
+      <c r="I37" s="198"/>
+      <c r="J37" s="184"/>
+      <c r="K37" s="193"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="85">
+      <c r="A38" s="84">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B38" s="86">
+      <c r="B38" s="85">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C38" s="87">
+      <c r="C38" s="290">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
@@ -5868,20 +5843,20 @@
       <c r="F38" s="26"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="211"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="206"/>
+      <c r="I38" s="198"/>
+      <c r="J38" s="184"/>
+      <c r="K38" s="193"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="92">
+      <c r="A39" s="89">
         <f>Page1!A38</f>
         <v>0</v>
       </c>
-      <c r="B39" s="93">
+      <c r="B39" s="90">
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="94">
+      <c r="C39" s="292">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
@@ -5890,16 +5865,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="211"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="206"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="184"/>
+      <c r="K39" s="193"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="233" t="s">
+      <c r="A40" s="300" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="234"/>
-      <c r="C40" s="235"/>
+      <c r="B40" s="301"/>
+      <c r="C40" s="302"/>
       <c r="D40" s="29" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -5920,16 +5895,16 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="211"/>
-      <c r="J40" s="197"/>
-      <c r="K40" s="206"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="184"/>
+      <c r="K40" s="193"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="143" t="s">
+      <c r="A41" s="282" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="144"/>
-      <c r="C41" s="145"/>
+      <c r="B41" s="283"/>
+      <c r="C41" s="284"/>
       <c r="D41" s="32">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -5950,16 +5925,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="211"/>
-      <c r="J41" s="197"/>
-      <c r="K41" s="206"/>
+      <c r="I41" s="198"/>
+      <c r="J41" s="184"/>
+      <c r="K41" s="193"/>
     </row>
     <row r="42" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="236" t="s">
+      <c r="A42" s="303" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="237"/>
-      <c r="C42" s="238"/>
+      <c r="B42" s="304"/>
+      <c r="C42" s="305"/>
       <c r="D42" s="35">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -5980,16 +5955,16 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="222"/>
-      <c r="J42" s="199"/>
-      <c r="K42" s="207"/>
+      <c r="I42" s="201"/>
+      <c r="J42" s="186"/>
+      <c r="K42" s="194"/>
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="150"/>
-      <c r="C43" s="150"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="137"/>
       <c r="D43" s="38" t="s">
         <v>22</v>
       </c>
@@ -6006,8 +5981,8 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
-      <c r="B44" s="149"/>
-      <c r="C44" s="149"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="136"/>
       <c r="D44" s="38"/>
       <c r="F44" s="39"/>
       <c r="G44" s="40"/>
@@ -6016,11 +5991,11 @@
       <c r="J44" s="17"/>
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="132" t="s">
+      <c r="A45" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="128"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="40" t="s">
@@ -6033,11 +6008,11 @@
       <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="132"/>
-      <c r="C46" s="132"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="128"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
@@ -6130,384 +6105,384 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" style="98" customWidth="1"/>
-    <col min="3" max="5" width="12.85546875" style="98" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="98" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="98" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="98"/>
+    <col min="1" max="2" width="21.42578125" style="94" customWidth="1"/>
+    <col min="3" max="5" width="12.85546875" style="94" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="94" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="94" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="94"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="241"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="210"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="101" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="219" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="252"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="221"/>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="197"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="206"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="193"/>
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="242" t="s">
+      <c r="A5" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="244"/>
+      <c r="B5" s="212"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="212"/>
+      <c r="G5" s="213"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="245">
+      <c r="D6" s="214">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="246"/>
-      <c r="F6" s="247" t="s">
+      <c r="E6" s="215"/>
+      <c r="F6" s="216" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="248">
+      <c r="G6" s="217">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="104" t="s">
+      <c r="B7" s="102"/>
+      <c r="C7" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="245">
+      <c r="D7" s="214">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="246"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="249"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="218"/>
     </row>
     <row r="8" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="101">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="247">
+      <c r="D8" s="216">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="247"/>
-      <c r="F8" s="262" t="s">
+      <c r="E8" s="216"/>
+      <c r="F8" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="248">
+      <c r="G8" s="217">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="107">
+      <c r="B9" s="103">
         <f>Page1!G44</f>
         <v>461303700</v>
       </c>
-      <c r="C9" s="262" t="s">
+      <c r="C9" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="267" t="s">
+      <c r="D9" s="236" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="268"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="265"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="232"/>
+      <c r="G9" s="234"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="110">
+      <c r="B10" s="106">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="264"/>
-      <c r="D10" s="269"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="264"/>
-      <c r="G10" s="266"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="235"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="253" t="s">
+      <c r="A11" s="222" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="255" t="s">
+      <c r="B11" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="257" t="s">
+      <c r="C11" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="258"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="255" t="s">
+      <c r="D11" s="227"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="224" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="260" t="s">
+      <c r="G11" s="229" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="254"/>
-      <c r="B12" s="256"/>
-      <c r="C12" s="111" t="s">
+      <c r="A12" s="223"/>
+      <c r="B12" s="225"/>
+      <c r="C12" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="256"/>
-      <c r="G12" s="261"/>
+      <c r="F12" s="225"/>
+      <c r="G12" s="230"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="114">
+      <c r="C13" s="110">
         <v>17</v>
       </c>
-      <c r="D13" s="114">
+      <c r="D13" s="110">
         <v>18</v>
       </c>
-      <c r="E13" s="114">
+      <c r="E13" s="110">
         <v>20</v>
       </c>
-      <c r="F13" s="115" t="e">
+      <c r="F13" s="111" t="e">
         <f>Page1!D39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="91" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="118">
+      <c r="C14" s="114">
         <v>18</v>
       </c>
-      <c r="D14" s="118">
+      <c r="D14" s="114">
         <v>23</v>
       </c>
-      <c r="E14" s="118">
+      <c r="E14" s="114">
         <v>28</v>
       </c>
-      <c r="F14" s="119" t="e">
+      <c r="F14" s="115" t="e">
         <f>Page1!E39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="120" t="s">
+      <c r="G14" s="116" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="118">
+      <c r="C15" s="114">
         <v>300</v>
       </c>
-      <c r="D15" s="118" t="s">
+      <c r="D15" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="118" t="s">
+      <c r="E15" s="114" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="61" t="e">
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="271" t="s">
+      <c r="G15" s="240" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="118">
+      <c r="C16" s="114">
         <v>300</v>
       </c>
-      <c r="D16" s="118" t="s">
+      <c r="D16" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="118" t="s">
+      <c r="E16" s="114" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="61" t="e">
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="228"/>
+      <c r="G16" s="205"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="118">
+      <c r="C17" s="114">
         <v>900</v>
       </c>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="118">
+      <c r="E17" s="114">
         <v>1200</v>
       </c>
       <c r="F17" s="61" t="e">
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="228"/>
+      <c r="G17" s="205"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="118">
+      <c r="C18" s="114">
         <v>700</v>
       </c>
-      <c r="D18" s="118" t="s">
+      <c r="D18" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="118">
+      <c r="E18" s="114">
         <v>1000</v>
       </c>
       <c r="F18" s="61" t="e">
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="228"/>
+      <c r="G18" s="205"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="118">
+      <c r="C19" s="114">
         <v>350</v>
       </c>
-      <c r="D19" s="118" t="s">
+      <c r="D19" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="118" t="s">
+      <c r="E19" s="114" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="61" t="e">
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="228"/>
+      <c r="G19" s="205"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="118">
+      <c r="C20" s="114">
         <v>400</v>
       </c>
-      <c r="D20" s="118" t="s">
+      <c r="D20" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="118" t="s">
+      <c r="E20" s="114" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="61" t="e">
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="228"/>
+      <c r="G20" s="205"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="113" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="33">
@@ -6523,13 +6498,13 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="228"/>
+      <c r="G21" s="205"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="113" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="33">
@@ -6545,13 +6520,13 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="166"/>
+      <c r="G22" s="153"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="117" t="s">
+      <c r="B23" s="113" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="61">
@@ -6567,18 +6542,18 @@
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="120" t="s">
+      <c r="G23" s="116" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="116" t="s">
+      <c r="A24" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="C24" s="114" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="61">
@@ -6593,334 +6568,334 @@
         <f>Page2!I41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="120" t="s">
+      <c r="G24" s="116" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="116" t="s">
+      <c r="A25" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="113" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="61">
         <v>6000</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="118" t="s">
+      <c r="E25" s="114" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="61">
         <v>6000</v>
       </c>
-      <c r="G25" s="120" t="s">
+      <c r="G25" s="116" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="122" t="s">
+      <c r="A26" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="96">
+      <c r="C26" s="92">
         <v>410</v>
       </c>
-      <c r="D26" s="96">
+      <c r="D26" s="92">
         <v>430</v>
       </c>
-      <c r="E26" s="124">
+      <c r="E26" s="120">
         <v>450</v>
       </c>
-      <c r="F26" s="124" t="e">
+      <c r="F26" s="120" t="e">
         <f>Page2!K41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="121" t="s">
+      <c r="G26" s="117" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="272" t="s">
+      <c r="A27" s="241" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="273"/>
-      <c r="C27" s="273"/>
-      <c r="D27" s="273"/>
-      <c r="E27" s="273"/>
-      <c r="F27" s="273"/>
-      <c r="G27" s="274"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="242"/>
+      <c r="G27" s="243"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="275" t="s">
+      <c r="A28" s="244" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="276"/>
-      <c r="C28" s="277" t="s">
+      <c r="B28" s="245"/>
+      <c r="C28" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="278"/>
-      <c r="E28" s="279"/>
-      <c r="F28" s="125" t="s">
+      <c r="D28" s="247"/>
+      <c r="E28" s="248"/>
+      <c r="F28" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="95" t="s">
+      <c r="G28" s="91" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="280" t="s">
+      <c r="A29" s="249" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="246"/>
-      <c r="C29" s="281" t="s">
+      <c r="B29" s="215"/>
+      <c r="C29" s="250" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="282"/>
-      <c r="E29" s="283"/>
+      <c r="D29" s="251"/>
+      <c r="E29" s="252"/>
       <c r="F29" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="120" t="s">
+      <c r="G29" s="116" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="280" t="s">
+      <c r="A30" s="249" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="246"/>
-      <c r="C30" s="281" t="s">
+      <c r="B30" s="215"/>
+      <c r="C30" s="250" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="282"/>
-      <c r="E30" s="283"/>
+      <c r="D30" s="251"/>
+      <c r="E30" s="252"/>
       <c r="F30" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="95" t="s">
+      <c r="G30" s="91" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="280" t="s">
+      <c r="A31" s="249" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="246"/>
-      <c r="C31" s="281" t="s">
+      <c r="B31" s="215"/>
+      <c r="C31" s="250" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="282"/>
-      <c r="E31" s="283"/>
+      <c r="D31" s="251"/>
+      <c r="E31" s="252"/>
       <c r="F31" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="120" t="s">
+      <c r="G31" s="116" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="280" t="s">
+      <c r="A32" s="249" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="246"/>
-      <c r="C32" s="281" t="s">
+      <c r="B32" s="215"/>
+      <c r="C32" s="250" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="282"/>
-      <c r="E32" s="283"/>
+      <c r="D32" s="251"/>
+      <c r="E32" s="252"/>
       <c r="F32" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="120" t="s">
+      <c r="G32" s="116" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="280" t="s">
+      <c r="A33" s="249" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="246"/>
-      <c r="C33" s="281" t="s">
+      <c r="B33" s="215"/>
+      <c r="C33" s="250" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="282"/>
-      <c r="E33" s="283"/>
+      <c r="D33" s="251"/>
+      <c r="E33" s="252"/>
       <c r="F33" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="120" t="s">
+      <c r="G33" s="116" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="158" t="s">
+      <c r="A34" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="159"/>
-      <c r="C34" s="286" t="s">
+      <c r="B34" s="146"/>
+      <c r="C34" s="255" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="287"/>
-      <c r="E34" s="288"/>
-      <c r="F34" s="126" t="s">
+      <c r="D34" s="256"/>
+      <c r="E34" s="257"/>
+      <c r="F34" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="131" t="s">
+      <c r="G34" s="127" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="272" t="s">
+      <c r="A35" s="241" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="273"/>
-      <c r="C35" s="273"/>
-      <c r="D35" s="273"/>
-      <c r="E35" s="273"/>
-      <c r="F35" s="273"/>
-      <c r="G35" s="274"/>
+      <c r="B35" s="242"/>
+      <c r="C35" s="242"/>
+      <c r="D35" s="242"/>
+      <c r="E35" s="242"/>
+      <c r="F35" s="242"/>
+      <c r="G35" s="243"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="153"/>
-      <c r="C36" s="284" t="s">
+      <c r="B36" s="140"/>
+      <c r="C36" s="253" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="285"/>
-      <c r="E36" s="153"/>
+      <c r="D36" s="254"/>
+      <c r="E36" s="140"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="95" t="s">
+      <c r="G36" s="91" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="275" t="s">
+      <c r="A37" s="244" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="276"/>
-      <c r="C37" s="245" t="s">
+      <c r="B37" s="245"/>
+      <c r="C37" s="214" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="289"/>
-      <c r="E37" s="246"/>
-      <c r="F37" s="118" t="s">
+      <c r="D37" s="258"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="120" t="s">
+      <c r="G37" s="116" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="280" t="s">
+      <c r="A38" s="249" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="246"/>
-      <c r="C38" s="245" t="s">
+      <c r="B38" s="215"/>
+      <c r="C38" s="214" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="289"/>
-      <c r="E38" s="246"/>
-      <c r="F38" s="118" t="s">
+      <c r="D38" s="258"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="120" t="s">
+      <c r="G38" s="116" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="158" t="s">
+      <c r="A39" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="159"/>
-      <c r="C39" s="290" t="s">
+      <c r="B39" s="146"/>
+      <c r="C39" s="259" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="291"/>
-      <c r="E39" s="159"/>
+      <c r="D39" s="260"/>
+      <c r="E39" s="146"/>
       <c r="F39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="121" t="s">
+      <c r="G39" s="117" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="295" t="s">
+      <c r="A40" s="264" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="296"/>
-      <c r="C40" s="297" t="s">
+      <c r="B40" s="265"/>
+      <c r="C40" s="266" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="298"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="297" t="s">
+      <c r="D40" s="267"/>
+      <c r="E40" s="268"/>
+      <c r="F40" s="266" t="s">
         <v>136</v>
       </c>
-      <c r="G40" s="299"/>
+      <c r="G40" s="268"/>
     </row>
     <row r="41" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="300"/>
-      <c r="B41" s="301"/>
-      <c r="C41" s="304"/>
-      <c r="D41" s="305"/>
-      <c r="E41" s="306"/>
-      <c r="F41" s="304"/>
-      <c r="G41" s="306"/>
+      <c r="A41" s="272"/>
+      <c r="B41" s="273"/>
+      <c r="C41" s="276"/>
+      <c r="D41" s="277"/>
+      <c r="E41" s="278"/>
+      <c r="F41" s="276"/>
+      <c r="G41" s="278"/>
     </row>
     <row r="42" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="302"/>
-      <c r="B42" s="303"/>
-      <c r="C42" s="307" t="s">
+      <c r="A42" s="274"/>
+      <c r="B42" s="275"/>
+      <c r="C42" s="269" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="308"/>
-      <c r="E42" s="309"/>
-      <c r="F42" s="307" t="s">
+      <c r="D42" s="271"/>
+      <c r="E42" s="270"/>
+      <c r="F42" s="269" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="309"/>
+      <c r="G42" s="270"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="127"/>
-      <c r="B43" s="127"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="127"/>
-      <c r="E43" s="293"/>
-      <c r="F43" s="293"/>
-      <c r="G43" s="293"/>
+      <c r="A43" s="123"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="262"/>
+      <c r="F43" s="262"/>
+      <c r="G43" s="262"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="128"/>
-      <c r="C44" s="129"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="294"/>
-      <c r="F44" s="294"/>
-      <c r="G44" s="294"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="263"/>
+      <c r="F44" s="263"/>
+      <c r="G44" s="263"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="292" t="s">
+      <c r="A46" s="261" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="292"/>
+      <c r="B46" s="261"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="292" t="s">
+      <c r="A47" s="261" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="292"/>
+      <c r="B47" s="261"/>
     </row>
   </sheetData>
   <mergeCells count="55">
@@ -6980,8 +6955,8 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A3:G3"/>
   </mergeCells>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.78740157480314965" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/backend/templates/UC-18gsm-290P-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-290P-ABQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049F5107-FBBB-4BFE-AFA6-1EDB3643581E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F7D574-0A26-4841-A87B-727AC462EB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1415,7 +1415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1776,9 +1776,6 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1788,9 +1785,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1806,12 +1800,6 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1827,6 +1815,90 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1842,13 +1914,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1857,106 +1950,125 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1965,6 +2077,10 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1977,108 +2093,232 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2099,18 +2339,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2123,256 +2351,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2948,35 +2951,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -2997,12 +3000,12 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3014,19 +3017,19 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="154"/>
-      <c r="K4" s="155"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="147"/>
       <c r="M4" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="150"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3038,28 +3041,28 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="156"/>
-      <c r="K5" s="157"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="149"/>
     </row>
     <row r="6" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="131"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="153"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="152"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="144"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="154" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="133"/>
@@ -3073,29 +3076,29 @@
       <c r="F7" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="141" t="s">
+      <c r="G7" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="141" t="s">
+      <c r="H7" s="131" t="s">
         <v>126</v>
       </c>
       <c r="I7" s="133" t="s">
         <v>1</v>
       </c>
       <c r="J7" s="133"/>
-      <c r="K7" s="153"/>
+      <c r="K7" s="145"/>
     </row>
     <row r="8" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="134"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135" t="s">
+      <c r="A8" s="155"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="135"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3497,11 +3500,11 @@
       <c r="K38" s="72"/>
     </row>
     <row r="39" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="279" t="s">
+      <c r="A39" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="280"/>
-      <c r="C39" s="281"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="164"/>
       <c r="D39" s="30" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3536,11 +3539,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="282" t="s">
+      <c r="A40" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="283"/>
-      <c r="C40" s="284"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="161"/>
       <c r="D40" s="33">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3575,11 +3578,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="285" t="s">
+      <c r="A41" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="286"/>
-      <c r="C41" s="287"/>
+      <c r="B41" s="157"/>
+      <c r="C41" s="158"/>
       <c r="D41" s="79">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3620,8 +3623,8 @@
       <c r="A42" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="166"/>
       <c r="D42" s="38" t="s">
         <v>22</v>
       </c>
@@ -3638,8 +3641,8 @@
     </row>
     <row r="43" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
-      <c r="B43" s="136"/>
-      <c r="C43" s="136"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
       <c r="D43" s="38"/>
       <c r="F43" s="39"/>
       <c r="G43" s="40"/>
@@ -3648,11 +3651,11 @@
       <c r="J43" s="17"/>
     </row>
     <row r="44" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="128" t="s">
+      <c r="A44" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="128"/>
-      <c r="C44" s="128"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="150"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
       <c r="F44" s="40" t="s">
@@ -3664,11 +3667,11 @@
       <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="128" t="s">
+      <c r="A45" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="128"/>
-      <c r="C45" s="128"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="150"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
@@ -3697,6 +3700,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A4:B4"/>
@@ -3712,16 +3725,6 @@
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D41">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="notBetween">
@@ -3793,35 +3796,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -3842,22 +3845,22 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="140">
+      <c r="B4" s="130">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="195">
+      <c r="C4" s="197">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="196"/>
+      <c r="D4" s="174"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="126">
+      <c r="F4" s="122">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
@@ -3871,25 +3874,25 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="187">
+      <c r="J4" s="190">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="188"/>
+      <c r="K4" s="191"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="146">
+      <c r="B5" s="138">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="149">
+      <c r="C5" s="141">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="150"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3907,104 +3910,104 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="189">
+      <c r="J5" s="192">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="190"/>
+      <c r="K5" s="193"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="199" t="s">
+      <c r="A6" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="200"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="185"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="182"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="207" t="s">
+      <c r="A7" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="169"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="182"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="180" t="s">
+      <c r="E7" s="169"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="182"/>
-      <c r="I7" s="180" t="s">
+      <c r="H7" s="169"/>
+      <c r="I7" s="186" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="181"/>
-      <c r="K7" s="192" t="s">
+      <c r="J7" s="170"/>
+      <c r="K7" s="194" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="198"/>
-      <c r="B8" s="288"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="288" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="202" t="s">
+      <c r="E8" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="191" t="s">
+      <c r="F8" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="183"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="183" t="s">
+      <c r="G8" s="187"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="187" t="s">
         <v>131</v>
       </c>
-      <c r="J8" s="191"/>
-      <c r="K8" s="193"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="195"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="198"/>
-      <c r="B9" s="288"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="184"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="188"/>
       <c r="I9" s="47" t="s">
         <v>127</v>
       </c>
       <c r="J9" s="48">
         <v>290</v>
       </c>
-      <c r="K9" s="193"/>
+      <c r="K9" s="195"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="198"/>
-      <c r="B10" s="288"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="186"/>
+      <c r="A10" s="199"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="180"/>
       <c r="I10" s="49" t="s">
         <v>128</v>
       </c>
       <c r="J10" s="50">
         <v>293</v>
       </c>
-      <c r="K10" s="194"/>
+      <c r="K10" s="196"/>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82">
@@ -4015,17 +4018,17 @@
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C11" s="289">
+      <c r="C11" s="124">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
       <c r="F11" s="52"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="175"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="201"/>
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4037,17 +4040,17 @@
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="290">
+      <c r="C12" s="125">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="161"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="208"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="203"/>
       <c r="K12" s="56"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4059,17 +4062,17 @@
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C13" s="291">
+      <c r="C13" s="126">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
       <c r="D13" s="54"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="161"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="203"/>
       <c r="K13" s="56"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4081,17 +4084,17 @@
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="291">
+      <c r="C14" s="126">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="161"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="208"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="203"/>
       <c r="K14" s="56"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4103,17 +4106,17 @@
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C15" s="290">
+      <c r="C15" s="125">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="161"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="203"/>
       <c r="K15" s="56"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4125,17 +4128,17 @@
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="290">
+      <c r="C16" s="125">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="161"/>
+      <c r="G16" s="215"/>
+      <c r="H16" s="215"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="203"/>
       <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4147,17 +4150,17 @@
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="290">
+      <c r="C17" s="125">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
       <c r="D17" s="54"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="161"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="203"/>
       <c r="K17" s="56"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4169,17 +4172,17 @@
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C18" s="290">
+      <c r="C18" s="125">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
       <c r="D18" s="54"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="161"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="203"/>
       <c r="K18" s="56"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4191,17 +4194,17 @@
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C19" s="290">
+      <c r="C19" s="125">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
       <c r="D19" s="54"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="161"/>
+      <c r="G19" s="208"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="203"/>
       <c r="K19" s="56"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4213,17 +4216,17 @@
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C20" s="290">
+      <c r="C20" s="125">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
       <c r="D20" s="54"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="161"/>
+      <c r="G20" s="213"/>
+      <c r="H20" s="214"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="203"/>
       <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4235,17 +4238,17 @@
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="291">
+      <c r="C21" s="126">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
       <c r="D21" s="54"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="161"/>
+      <c r="G21" s="213"/>
+      <c r="H21" s="214"/>
+      <c r="I21" s="202"/>
+      <c r="J21" s="203"/>
       <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4257,17 +4260,17 @@
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C22" s="290">
+      <c r="C22" s="125">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
       <c r="D22" s="54"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="161"/>
+      <c r="G22" s="213"/>
+      <c r="H22" s="214"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="203"/>
       <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4279,17 +4282,17 @@
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C23" s="291">
+      <c r="C23" s="126">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
       <c r="D23" s="54"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="161"/>
+      <c r="G23" s="213"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="202"/>
+      <c r="J23" s="203"/>
       <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4301,17 +4304,17 @@
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C24" s="291">
+      <c r="C24" s="126">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="161"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="214"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="203"/>
       <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4323,17 +4326,17 @@
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C25" s="290">
+      <c r="C25" s="125">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
       <c r="D25" s="54"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="161"/>
+      <c r="G25" s="213"/>
+      <c r="H25" s="214"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="203"/>
       <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4345,17 +4348,17 @@
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="290">
+      <c r="C26" s="125">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
       <c r="D26" s="54"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="161"/>
+      <c r="G26" s="213"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="203"/>
       <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4367,17 +4370,17 @@
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C27" s="290">
+      <c r="C27" s="125">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
       <c r="D27" s="54"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="161"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="203"/>
       <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4389,17 +4392,17 @@
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C28" s="290">
+      <c r="C28" s="125">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
       <c r="D28" s="54"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="161"/>
+      <c r="G28" s="213"/>
+      <c r="H28" s="214"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="203"/>
       <c r="K28" s="56"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4411,17 +4414,17 @@
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C29" s="290">
+      <c r="C29" s="125">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
       <c r="D29" s="54"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="161"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="202"/>
+      <c r="J29" s="203"/>
       <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4433,17 +4436,17 @@
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C30" s="290">
+      <c r="C30" s="125">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
       <c r="D30" s="54"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="161"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="202"/>
+      <c r="J30" s="203"/>
       <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4455,17 +4458,17 @@
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C31" s="291">
+      <c r="C31" s="126">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
       <c r="D31" s="54"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="161"/>
+      <c r="G31" s="213"/>
+      <c r="H31" s="214"/>
+      <c r="I31" s="202"/>
+      <c r="J31" s="203"/>
       <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4477,17 +4480,17 @@
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C32" s="290">
+      <c r="C32" s="125">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
       <c r="D32" s="54"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="161"/>
+      <c r="G32" s="213"/>
+      <c r="H32" s="214"/>
+      <c r="I32" s="202"/>
+      <c r="J32" s="203"/>
       <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4499,17 +4502,17 @@
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C33" s="291">
+      <c r="C33" s="126">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
       <c r="D33" s="54"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="161"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="214"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="203"/>
       <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4521,17 +4524,17 @@
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C34" s="291">
+      <c r="C34" s="126">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
       <c r="D34" s="54"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="161"/>
+      <c r="G34" s="213"/>
+      <c r="H34" s="214"/>
+      <c r="I34" s="202"/>
+      <c r="J34" s="203"/>
       <c r="K34" s="56"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4543,17 +4546,17 @@
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C35" s="290">
+      <c r="C35" s="125">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
       <c r="D35" s="54"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="159"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="161"/>
+      <c r="G35" s="213"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="202"/>
+      <c r="J35" s="203"/>
       <c r="K35" s="56"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4565,17 +4568,17 @@
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C36" s="290">
+      <c r="C36" s="125">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
       <c r="D36" s="54"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="161"/>
+      <c r="G36" s="213"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="202"/>
+      <c r="J36" s="203"/>
       <c r="K36" s="56"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4587,17 +4590,17 @@
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C37" s="290">
+      <c r="C37" s="125">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
       <c r="D37" s="54"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="159"/>
-      <c r="I37" s="160"/>
-      <c r="J37" s="161"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="214"/>
+      <c r="I37" s="202"/>
+      <c r="J37" s="203"/>
       <c r="K37" s="56"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4609,17 +4612,17 @@
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C38" s="290">
+      <c r="C38" s="125">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
       <c r="D38" s="54"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="159"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="161"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="202"/>
+      <c r="J38" s="203"/>
       <c r="K38" s="56"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4631,17 +4634,17 @@
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C39" s="290">
+      <c r="C39" s="125">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
       <c r="D39" s="54"/>
       <c r="E39" s="55"/>
       <c r="F39" s="55"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="159"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="161"/>
+      <c r="G39" s="213"/>
+      <c r="H39" s="214"/>
+      <c r="I39" s="202"/>
+      <c r="J39" s="203"/>
       <c r="K39" s="56"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4653,25 +4656,25 @@
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C40" s="292">
+      <c r="C40" s="127">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
       <c r="D40" s="54"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="163"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="161"/>
+      <c r="G40" s="208"/>
+      <c r="H40" s="208"/>
+      <c r="I40" s="202"/>
+      <c r="J40" s="203"/>
       <c r="K40" s="56"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="293" t="s">
+      <c r="A41" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="294"/>
-      <c r="C41" s="294"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="176"/>
       <c r="D41" s="57" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4684,27 +4687,27 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="166" t="e">
+      <c r="G41" s="218" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="167"/>
-      <c r="I41" s="164" t="e">
+      <c r="H41" s="219"/>
+      <c r="I41" s="216" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="165"/>
+      <c r="J41" s="217"/>
       <c r="K41" s="59" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="295" t="s">
+      <c r="A42" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="296"/>
-      <c r="C42" s="296"/>
+      <c r="B42" s="178"/>
+      <c r="C42" s="178"/>
       <c r="D42" s="60">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4717,27 +4720,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="172">
+      <c r="G42" s="211">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="173"/>
-      <c r="I42" s="176">
+      <c r="H42" s="212"/>
+      <c r="I42" s="204">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="177"/>
+      <c r="J42" s="205"/>
       <c r="K42" s="62">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="297" t="s">
+      <c r="A43" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="298"/>
-      <c r="C43" s="298"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="63">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4750,16 +4753,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="170">
+      <c r="G43" s="209">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="171"/>
-      <c r="I43" s="168">
+      <c r="H43" s="210"/>
+      <c r="I43" s="206">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="169"/>
+      <c r="J43" s="207"/>
       <c r="K43" s="65">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4769,8 +4772,8 @@
       <c r="A44" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="137"/>
-      <c r="C44" s="137"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
       <c r="D44" s="38" t="s">
         <v>22</v>
       </c>
@@ -4787,8 +4790,8 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
       <c r="D45" s="38"/>
       <c r="F45" s="39"/>
       <c r="G45" s="40"/>
@@ -4797,11 +4800,11 @@
       <c r="J45" s="17"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="128" t="s">
+      <c r="A46" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="128"/>
-      <c r="C46" s="128"/>
+      <c r="B46" s="150"/>
+      <c r="C46" s="150"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="40" t="s">
@@ -4814,11 +4817,11 @@
       <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="128" t="s">
+      <c r="A47" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="128"/>
-      <c r="C47" s="128"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="150"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
@@ -4873,47 +4876,43 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G40:H40"/>
@@ -4930,43 +4929,47 @@
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
@@ -5027,35 +5030,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -5076,19 +5079,19 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="195">
+      <c r="B4" s="130"/>
+      <c r="C4" s="197">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="196"/>
+      <c r="D4" s="174"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="126">
+      <c r="F4" s="122">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
@@ -5102,22 +5105,22 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="187">
+      <c r="J4" s="190">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="188"/>
+      <c r="K4" s="191"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="149">
+      <c r="B5" s="138"/>
+      <c r="C5" s="141">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="150"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -5135,79 +5138,79 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="189">
+      <c r="J5" s="192">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="190"/>
+      <c r="K5" s="193"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="144"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="136"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="192"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="194"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="182"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="207" t="s">
+      <c r="A7" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="169"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="204" t="s">
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="227" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="198"/>
-      <c r="J7" s="184"/>
-      <c r="K7" s="193"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="195"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="198"/>
-      <c r="B8" s="288"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="299" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="230" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="202" t="s">
+      <c r="E8" s="181" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="202" t="s">
+      <c r="F8" s="181" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="202" t="s">
+      <c r="G8" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="205"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="184"/>
-      <c r="K8" s="193"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="195"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="201"/>
-      <c r="B9" s="186"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="206"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="193"/>
+      <c r="A9" s="226"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="195"/>
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="82">
@@ -5218,7 +5221,7 @@
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="289">
+      <c r="C10" s="124">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
@@ -5227,9 +5230,9 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="193"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="195"/>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="84">
@@ -5240,7 +5243,7 @@
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="290">
+      <c r="C11" s="125">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
@@ -5249,9 +5252,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="193"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="188"/>
+      <c r="K11" s="195"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84">
@@ -5262,7 +5265,7 @@
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="291">
+      <c r="C12" s="126">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
@@ -5271,9 +5274,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="193"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="195"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="84">
@@ -5284,7 +5287,7 @@
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="291">
+      <c r="C13" s="126">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
@@ -5293,9 +5296,9 @@
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="193"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="195"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="84">
@@ -5306,7 +5309,7 @@
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="290">
+      <c r="C14" s="125">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
@@ -5315,9 +5318,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="193"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="195"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="84">
@@ -5328,7 +5331,7 @@
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="290">
+      <c r="C15" s="125">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
@@ -5337,9 +5340,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="193"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="195"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="84">
@@ -5350,7 +5353,7 @@
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="290">
+      <c r="C16" s="125">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
@@ -5359,9 +5362,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="184"/>
-      <c r="K16" s="193"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="195"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="84">
@@ -5372,7 +5375,7 @@
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="290">
+      <c r="C17" s="125">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
@@ -5381,9 +5384,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="184"/>
-      <c r="K17" s="193"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="195"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="84">
@@ -5394,7 +5397,7 @@
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="290">
+      <c r="C18" s="125">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
@@ -5403,9 +5406,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="184"/>
-      <c r="K18" s="193"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="195"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="84">
@@ -5416,7 +5419,7 @@
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="290">
+      <c r="C19" s="125">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
@@ -5425,9 +5428,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="184"/>
-      <c r="K19" s="193"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="188"/>
+      <c r="K19" s="195"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="88">
@@ -5438,7 +5441,7 @@
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="291">
+      <c r="C20" s="126">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
@@ -5447,9 +5450,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="198"/>
-      <c r="J20" s="184"/>
-      <c r="K20" s="193"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="195"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="84">
@@ -5460,7 +5463,7 @@
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C21" s="290">
+      <c r="C21" s="125">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
@@ -5469,9 +5472,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="184"/>
-      <c r="K21" s="193"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="188"/>
+      <c r="K21" s="195"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="84">
@@ -5482,7 +5485,7 @@
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C22" s="291">
+      <c r="C22" s="126">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
@@ -5491,9 +5494,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="184"/>
-      <c r="K22" s="193"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="195"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="84">
@@ -5504,7 +5507,7 @@
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C23" s="291">
+      <c r="C23" s="126">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
@@ -5513,9 +5516,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="184"/>
-      <c r="K23" s="193"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="195"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="84">
@@ -5526,7 +5529,7 @@
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="290">
+      <c r="C24" s="125">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
@@ -5535,9 +5538,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="184"/>
-      <c r="K24" s="193"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="188"/>
+      <c r="K24" s="195"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="84">
@@ -5548,7 +5551,7 @@
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="290">
+      <c r="C25" s="125">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
@@ -5557,9 +5560,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="184"/>
-      <c r="K25" s="193"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="188"/>
+      <c r="K25" s="195"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="84">
@@ -5570,7 +5573,7 @@
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="290">
+      <c r="C26" s="125">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
@@ -5579,9 +5582,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="184"/>
-      <c r="K26" s="193"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="195"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="84">
@@ -5592,7 +5595,7 @@
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="290">
+      <c r="C27" s="125">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
@@ -5601,9 +5604,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="198"/>
-      <c r="J27" s="184"/>
-      <c r="K27" s="193"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="188"/>
+      <c r="K27" s="195"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="84">
@@ -5614,7 +5617,7 @@
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C28" s="290">
+      <c r="C28" s="125">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
@@ -5623,9 +5626,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="193"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="188"/>
+      <c r="K28" s="195"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="84">
@@ -5636,7 +5639,7 @@
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="290">
+      <c r="C29" s="125">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
@@ -5645,9 +5648,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="27"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="198"/>
-      <c r="J29" s="184"/>
-      <c r="K29" s="193"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="188"/>
+      <c r="K29" s="195"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="88">
@@ -5658,7 +5661,7 @@
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="291">
+      <c r="C30" s="126">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
@@ -5667,9 +5670,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="27"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="193"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="188"/>
+      <c r="K30" s="195"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="84">
@@ -5680,7 +5683,7 @@
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="290">
+      <c r="C31" s="125">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
@@ -5689,9 +5692,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="27"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="193"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="188"/>
+      <c r="K31" s="195"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="84">
@@ -5702,7 +5705,7 @@
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="291">
+      <c r="C32" s="126">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
@@ -5711,9 +5714,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="193"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="188"/>
+      <c r="K32" s="195"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="84">
@@ -5724,7 +5727,7 @@
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C33" s="291">
+      <c r="C33" s="126">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
@@ -5733,9 +5736,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="193"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="188"/>
+      <c r="K33" s="195"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="84">
@@ -5746,7 +5749,7 @@
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="290">
+      <c r="C34" s="125">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
@@ -5755,9 +5758,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="198"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="193"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="188"/>
+      <c r="K34" s="195"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="84">
@@ -5768,7 +5771,7 @@
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="290">
+      <c r="C35" s="125">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
@@ -5777,9 +5780,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="184"/>
-      <c r="K35" s="193"/>
+      <c r="I35" s="199"/>
+      <c r="J35" s="188"/>
+      <c r="K35" s="195"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="84">
@@ -5790,7 +5793,7 @@
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C36" s="290">
+      <c r="C36" s="125">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
@@ -5799,9 +5802,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="184"/>
-      <c r="K36" s="193"/>
+      <c r="I36" s="199"/>
+      <c r="J36" s="188"/>
+      <c r="K36" s="195"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="84">
@@ -5812,7 +5815,7 @@
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="290">
+      <c r="C37" s="125">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
@@ -5821,9 +5824,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="198"/>
-      <c r="J37" s="184"/>
-      <c r="K37" s="193"/>
+      <c r="I37" s="199"/>
+      <c r="J37" s="188"/>
+      <c r="K37" s="195"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="84">
@@ -5834,7 +5837,7 @@
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C38" s="290">
+      <c r="C38" s="125">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
@@ -5843,9 +5846,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="198"/>
-      <c r="J38" s="184"/>
-      <c r="K38" s="193"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="188"/>
+      <c r="K38" s="195"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="89">
@@ -5856,7 +5859,7 @@
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="292">
+      <c r="C39" s="127">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
@@ -5865,16 +5868,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="198"/>
-      <c r="J39" s="184"/>
-      <c r="K39" s="193"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="188"/>
+      <c r="K39" s="195"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="300" t="s">
+      <c r="A40" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="301"/>
-      <c r="C40" s="302"/>
+      <c r="B40" s="221"/>
+      <c r="C40" s="222"/>
       <c r="D40" s="29" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -5895,16 +5898,16 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="198"/>
-      <c r="J40" s="184"/>
-      <c r="K40" s="193"/>
+      <c r="I40" s="199"/>
+      <c r="J40" s="188"/>
+      <c r="K40" s="195"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="282" t="s">
+      <c r="A41" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="283"/>
-      <c r="C41" s="284"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="161"/>
       <c r="D41" s="32">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -5925,16 +5928,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="198"/>
-      <c r="J41" s="184"/>
-      <c r="K41" s="193"/>
+      <c r="I41" s="199"/>
+      <c r="J41" s="188"/>
+      <c r="K41" s="195"/>
     </row>
     <row r="42" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="303" t="s">
+      <c r="A42" s="223" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="304"/>
-      <c r="C42" s="305"/>
+      <c r="B42" s="224"/>
+      <c r="C42" s="225"/>
       <c r="D42" s="35">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -5955,16 +5958,16 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="201"/>
-      <c r="J42" s="186"/>
-      <c r="K42" s="194"/>
+      <c r="I42" s="226"/>
+      <c r="J42" s="180"/>
+      <c r="K42" s="196"/>
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="137"/>
-      <c r="C43" s="137"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="166"/>
       <c r="D43" s="38" t="s">
         <v>22</v>
       </c>
@@ -5981,8 +5984,8 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
-      <c r="B44" s="136"/>
-      <c r="C44" s="136"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
       <c r="D44" s="38"/>
       <c r="F44" s="39"/>
       <c r="G44" s="40"/>
@@ -5991,11 +5994,11 @@
       <c r="J44" s="17"/>
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="128" t="s">
+      <c r="A45" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="128"/>
-      <c r="C45" s="128"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="150"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="40" t="s">
@@ -6008,11 +6011,11 @@
       <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="128" t="s">
+      <c r="A46" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="128"/>
-      <c r="C46" s="128"/>
+      <c r="B46" s="150"/>
+      <c r="C46" s="150"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
@@ -6037,15 +6040,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="A1:J1"/>
@@ -6062,6 +6056,15 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="notBetween">
@@ -6097,77 +6100,83 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="21.42578125" style="94" customWidth="1"/>
     <col min="3" max="5" width="12.85546875" style="94" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="94" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="94" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="94"/>
+    <col min="6" max="6" width="12.140625" style="94" customWidth="1"/>
+    <col min="7" max="7" width="5" style="94" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="94" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="288" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="210"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="H1" s="290"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="95"/>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
       <c r="D2" s="96"/>
       <c r="E2" s="96"/>
       <c r="F2" s="96"/>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="96"/>
+      <c r="H2" s="97" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="219" t="s">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="295" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="221"/>
-    </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="198" t="s">
+      <c r="B3" s="296"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="296"/>
+      <c r="G3" s="296"/>
+      <c r="H3" s="297"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="199" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="193"/>
-    </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="211" t="s">
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="195"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="291" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="212"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="212"/>
-      <c r="G5" s="213"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="292"/>
+      <c r="C5" s="292"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="293"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>47</v>
       </c>
@@ -6177,20 +6186,21 @@
       <c r="C6" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="214">
+      <c r="D6" s="248">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="215"/>
-      <c r="F6" s="216" t="s">
+      <c r="E6" s="250"/>
+      <c r="F6" s="275" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="217">
+      <c r="G6" s="276"/>
+      <c r="H6" s="272">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98" t="s">
         <v>50</v>
       </c>
@@ -6198,15 +6208,16 @@
       <c r="C7" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="214">
+      <c r="D7" s="248">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="215"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="218"/>
-    </row>
-    <row r="8" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="250"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="294"/>
+    </row>
+    <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
         <v>52</v>
       </c>
@@ -6217,20 +6228,21 @@
       <c r="C8" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="216">
+      <c r="D8" s="269">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="216"/>
-      <c r="F8" s="231" t="s">
+      <c r="E8" s="269"/>
+      <c r="F8" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="217">
+      <c r="G8" s="276"/>
+      <c r="H8" s="272">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="104" t="s">
         <v>54</v>
       </c>
@@ -6238,17 +6250,18 @@
         <f>Page1!G44</f>
         <v>461303700</v>
       </c>
-      <c r="C9" s="231" t="s">
+      <c r="C9" s="270" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="236" t="s">
+      <c r="D9" s="275" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="237"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="234"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="276"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="300"/>
+      <c r="H9" s="273"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="105" t="s">
         <v>57</v>
       </c>
@@ -6256,34 +6269,36 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="233"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="239"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="235"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="222" t="s">
+      <c r="C10" s="271"/>
+      <c r="D10" s="277"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="277"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="274"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="279" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="224" t="s">
+      <c r="B11" s="281" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="226" t="s">
+      <c r="C11" s="283" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="227"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="224" t="s">
+      <c r="D11" s="284"/>
+      <c r="E11" s="285"/>
+      <c r="F11" s="301" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="229" t="s">
+      <c r="G11" s="302"/>
+      <c r="H11" s="286" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="223"/>
-      <c r="B12" s="225"/>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="280"/>
+      <c r="B12" s="282"/>
       <c r="C12" s="107" t="s">
         <v>62</v>
       </c>
@@ -6293,10 +6308,11 @@
       <c r="E12" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="225"/>
-      <c r="G12" s="230"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="303"/>
+      <c r="G12" s="304"/>
+      <c r="H12" s="287"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="108" t="s">
         <v>65</v>
       </c>
@@ -6312,177 +6328,185 @@
       <c r="E13" s="110">
         <v>20</v>
       </c>
-      <c r="F13" s="111" t="e">
+      <c r="F13" s="305" t="e">
         <f>Page1!D39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="91" t="s">
+      <c r="G13" s="306"/>
+      <c r="H13" s="91" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="112" t="s">
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="114">
+      <c r="C14" s="113">
         <v>18</v>
       </c>
-      <c r="D14" s="114">
+      <c r="D14" s="113">
         <v>23</v>
       </c>
-      <c r="E14" s="114">
+      <c r="E14" s="113">
         <v>28</v>
       </c>
-      <c r="F14" s="115" t="e">
+      <c r="F14" s="204" t="e">
         <f>Page1!E39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="116" t="s">
+      <c r="G14" s="205"/>
+      <c r="H14" s="114" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="112" t="s">
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="114">
+      <c r="C15" s="113">
         <v>300</v>
       </c>
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="114" t="s">
+      <c r="E15" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="61" t="e">
+      <c r="F15" s="204" t="e">
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="240" t="s">
+      <c r="G15" s="205"/>
+      <c r="H15" s="265" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="112" t="s">
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="114">
+      <c r="C16" s="113">
         <v>300</v>
       </c>
-      <c r="D16" s="114" t="s">
+      <c r="D16" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="114" t="s">
+      <c r="E16" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="61" t="e">
+      <c r="F16" s="204" t="e">
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G16" s="205"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="112" t="s">
+      <c r="H16" s="228"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="114">
+      <c r="C17" s="113">
         <v>900</v>
       </c>
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="114">
+      <c r="E17" s="113">
         <v>1200</v>
       </c>
-      <c r="F17" s="61" t="e">
+      <c r="F17" s="204" t="e">
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G17" s="205"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="112" t="s">
+      <c r="H17" s="228"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="114">
+      <c r="C18" s="113">
         <v>700</v>
       </c>
-      <c r="D18" s="114" t="s">
+      <c r="D18" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="114">
+      <c r="E18" s="113">
         <v>1000</v>
       </c>
-      <c r="F18" s="61" t="e">
+      <c r="F18" s="204" t="e">
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="205"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="112" t="s">
+      <c r="H18" s="228"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="114">
+      <c r="C19" s="113">
         <v>350</v>
       </c>
-      <c r="D19" s="114" t="s">
+      <c r="D19" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="114" t="s">
+      <c r="E19" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="61" t="e">
+      <c r="F19" s="204" t="e">
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G19" s="205"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="112" t="s">
+      <c r="H19" s="228"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="114">
+      <c r="C20" s="113">
         <v>400</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="61" t="e">
+      <c r="F20" s="204" t="e">
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G20" s="205"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="112" t="s">
+      <c r="H20" s="228"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="112" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="33">
@@ -6494,17 +6518,18 @@
       <c r="E21" s="33">
         <v>0.6</v>
       </c>
-      <c r="F21" s="33" t="e">
+      <c r="F21" s="204" t="e">
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G21" s="205"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="112" t="s">
+      <c r="H21" s="228"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="112" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="33">
@@ -6516,17 +6541,18 @@
       <c r="E22" s="33">
         <v>1.4</v>
       </c>
-      <c r="F22" s="33" t="e">
+      <c r="F22" s="204" t="e">
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="153"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="112" t="s">
+      <c r="G22" s="205"/>
+      <c r="H22" s="145"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="112" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="61">
@@ -6538,22 +6564,23 @@
       <c r="E23" s="61">
         <v>400</v>
       </c>
-      <c r="F23" s="61" t="e">
+      <c r="F23" s="204" t="e">
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="116" t="s">
+      <c r="G23" s="205"/>
+      <c r="H23" s="114" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="112" t="s">
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="113" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="61">
@@ -6564,42 +6591,44 @@
         <f>Page2!J10</f>
         <v>293</v>
       </c>
-      <c r="F24" s="61" t="e">
+      <c r="F24" s="204" t="e">
         <f>Page2!I41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="116" t="s">
+      <c r="G24" s="205"/>
+      <c r="H24" s="114" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="112" t="s">
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="112" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="61">
         <v>6000</v>
       </c>
-      <c r="D25" s="114" t="s">
+      <c r="D25" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="114" t="s">
+      <c r="E25" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="61">
+      <c r="F25" s="204">
         <v>6000</v>
       </c>
-      <c r="G25" s="116" t="s">
+      <c r="G25" s="205"/>
+      <c r="H25" s="114" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="118" t="s">
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="117" t="s">
         <v>86</v>
       </c>
       <c r="C26" s="92">
@@ -6608,315 +6637,375 @@
       <c r="D26" s="92">
         <v>430</v>
       </c>
-      <c r="E26" s="120">
+      <c r="E26" s="118">
         <v>450</v>
       </c>
-      <c r="F26" s="120" t="e">
+      <c r="F26" s="204" t="e">
         <f>Page2!K41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="117" t="s">
+      <c r="G26" s="205"/>
+      <c r="H26" s="115" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="241" t="s">
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="262" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="242"/>
-      <c r="C27" s="242"/>
-      <c r="D27" s="242"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="242"/>
-      <c r="G27" s="243"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="244" t="s">
+      <c r="B27" s="263"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="263"/>
+      <c r="E27" s="263"/>
+      <c r="F27" s="263"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="264"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="246" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="245"/>
-      <c r="C28" s="246" t="s">
+      <c r="B28" s="247"/>
+      <c r="C28" s="266" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="247"/>
-      <c r="E28" s="248"/>
-      <c r="F28" s="121" t="s">
+      <c r="D28" s="267"/>
+      <c r="E28" s="268"/>
+      <c r="F28" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="91" t="s">
+      <c r="G28" s="205"/>
+      <c r="H28" s="91" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="249" t="s">
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="251" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="215"/>
-      <c r="C29" s="250" t="s">
+      <c r="B29" s="250"/>
+      <c r="C29" s="256" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="251"/>
-      <c r="E29" s="252"/>
-      <c r="F29" s="60" t="s">
+      <c r="D29" s="257"/>
+      <c r="E29" s="258"/>
+      <c r="F29" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="116" t="s">
+      <c r="G29" s="205"/>
+      <c r="H29" s="114" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="249" t="s">
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="251" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="215"/>
-      <c r="C30" s="250" t="s">
+      <c r="B30" s="250"/>
+      <c r="C30" s="256" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="251"/>
-      <c r="E30" s="252"/>
-      <c r="F30" s="60" t="s">
+      <c r="D30" s="257"/>
+      <c r="E30" s="258"/>
+      <c r="F30" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="91" t="s">
+      <c r="G30" s="205"/>
+      <c r="H30" s="91" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="249" t="s">
+    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="215"/>
-      <c r="C31" s="250" t="s">
+      <c r="B31" s="250"/>
+      <c r="C31" s="256" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="251"/>
-      <c r="E31" s="252"/>
-      <c r="F31" s="60" t="s">
+      <c r="D31" s="257"/>
+      <c r="E31" s="258"/>
+      <c r="F31" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="116" t="s">
+      <c r="G31" s="205"/>
+      <c r="H31" s="114" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="249" t="s">
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="251" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="215"/>
-      <c r="C32" s="250" t="s">
+      <c r="B32" s="250"/>
+      <c r="C32" s="256" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="251"/>
-      <c r="E32" s="252"/>
-      <c r="F32" s="60" t="s">
+      <c r="D32" s="257"/>
+      <c r="E32" s="258"/>
+      <c r="F32" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="116" t="s">
+      <c r="G32" s="205"/>
+      <c r="H32" s="114" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="249" t="s">
+    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="251" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="215"/>
-      <c r="C33" s="250" t="s">
+      <c r="B33" s="250"/>
+      <c r="C33" s="256" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="251"/>
-      <c r="E33" s="252"/>
-      <c r="F33" s="60" t="s">
+      <c r="D33" s="257"/>
+      <c r="E33" s="258"/>
+      <c r="F33" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="116" t="s">
+      <c r="G33" s="205"/>
+      <c r="H33" s="114" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="145" t="s">
+    <row r="34" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="146"/>
-      <c r="C34" s="255" t="s">
+      <c r="B34" s="138"/>
+      <c r="C34" s="259" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="256"/>
-      <c r="E34" s="257"/>
-      <c r="F34" s="122" t="s">
+      <c r="D34" s="260"/>
+      <c r="E34" s="261"/>
+      <c r="F34" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="127" t="s">
+      <c r="G34" s="205"/>
+      <c r="H34" s="123" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="241" t="s">
+    <row r="35" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="262" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="242"/>
-      <c r="C35" s="242"/>
-      <c r="D35" s="242"/>
-      <c r="E35" s="242"/>
-      <c r="F35" s="242"/>
-      <c r="G35" s="243"/>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="139" t="s">
+      <c r="B35" s="263"/>
+      <c r="C35" s="263"/>
+      <c r="D35" s="263"/>
+      <c r="E35" s="263"/>
+      <c r="F35" s="263"/>
+      <c r="G35" s="263"/>
+      <c r="H35" s="264"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="140"/>
-      <c r="C36" s="253" t="s">
+      <c r="B36" s="130"/>
+      <c r="C36" s="254" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="254"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="10" t="s">
+      <c r="D36" s="255"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="91" t="s">
+      <c r="G36" s="205"/>
+      <c r="H36" s="91" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="244" t="s">
+    <row r="37" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="246" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="245"/>
-      <c r="C37" s="214" t="s">
+      <c r="B37" s="247"/>
+      <c r="C37" s="248" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="258"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="114" t="s">
+      <c r="D37" s="249"/>
+      <c r="E37" s="250"/>
+      <c r="F37" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="116" t="s">
+      <c r="G37" s="205"/>
+      <c r="H37" s="114" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="249" t="s">
+    <row r="38" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="251" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="215"/>
-      <c r="C38" s="214" t="s">
+      <c r="B38" s="250"/>
+      <c r="C38" s="248" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="258"/>
-      <c r="E38" s="215"/>
-      <c r="F38" s="114" t="s">
+      <c r="D38" s="249"/>
+      <c r="E38" s="250"/>
+      <c r="F38" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="116" t="s">
+      <c r="G38" s="205"/>
+      <c r="H38" s="114" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="145" t="s">
+    <row r="39" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="146"/>
-      <c r="C39" s="259" t="s">
+      <c r="B39" s="138"/>
+      <c r="C39" s="252" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="260"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="1" t="s">
+      <c r="D39" s="253"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="117" t="s">
+      <c r="G39" s="205"/>
+      <c r="H39" s="115" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="264" t="s">
+    <row r="40" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="265"/>
-      <c r="C40" s="266" t="s">
+      <c r="B40" s="235"/>
+      <c r="C40" s="236" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="267"/>
-      <c r="E40" s="268"/>
-      <c r="F40" s="266" t="s">
+      <c r="D40" s="237"/>
+      <c r="E40" s="238"/>
+      <c r="F40" s="236" t="s">
         <v>136</v>
       </c>
-      <c r="G40" s="268"/>
-    </row>
-    <row r="41" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="272"/>
-      <c r="B41" s="273"/>
-      <c r="C41" s="276"/>
-      <c r="D41" s="277"/>
-      <c r="E41" s="278"/>
-      <c r="F41" s="276"/>
-      <c r="G41" s="278"/>
-    </row>
-    <row r="42" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="274"/>
-      <c r="B42" s="275"/>
-      <c r="C42" s="269" t="s">
+      <c r="G40" s="237"/>
+      <c r="H40" s="238"/>
+    </row>
+    <row r="41" spans="1:8" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="242"/>
+      <c r="B41" s="243"/>
+      <c r="C41" s="199"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="199"/>
+      <c r="G41" s="179"/>
+      <c r="H41" s="195"/>
+    </row>
+    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="242"/>
+      <c r="B42" s="243"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="179"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="179"/>
+      <c r="H42" s="195"/>
+    </row>
+    <row r="43" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="244"/>
+      <c r="B43" s="245"/>
+      <c r="C43" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="271"/>
-      <c r="E42" s="270"/>
-      <c r="F42" s="269" t="s">
+      <c r="D43" s="241"/>
+      <c r="E43" s="240"/>
+      <c r="F43" s="239" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="270"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="123"/>
-      <c r="B43" s="123"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="262"/>
-      <c r="F43" s="262"/>
-      <c r="G43" s="262"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
+      <c r="G43" s="241"/>
+      <c r="H43" s="240"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="119"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="232"/>
+      <c r="F44" s="232"/>
+      <c r="G44" s="232"/>
+      <c r="H44" s="232"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="124"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="263"/>
-      <c r="F44" s="263"/>
-      <c r="G44" s="263"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="261" t="s">
+      <c r="B45" s="120"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="233"/>
+      <c r="F45" s="233"/>
+      <c r="G45" s="233"/>
+      <c r="H45" s="233"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="231" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="261"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="261" t="s">
+      <c r="B47" s="231"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="231" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="261"/>
+      <c r="B48" s="231"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:G42"/>
+  <mergeCells count="82">
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="C42:E42"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F8:G10"/>
+    <mergeCell ref="H15:H22"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="A30:B30"/>
@@ -6929,31 +7018,27 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="A41:B43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-18gsm-290P-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-290P-ABQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F7D574-0A26-4841-A87B-727AC462EB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4D4B7F-78AC-4B42-9CDB-A9D04341D0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1415,7 +1415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2177,10 +2177,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2267,21 +2267,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2294,6 +2294,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2319,6 +2325,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2354,28 +2372,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6103,7 +6109,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6117,16 +6123,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="294" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="290"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="296"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="95"/>
@@ -6141,16 +6147,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="295" t="s">
+      <c r="A3" s="301" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="296"/>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="297"/>
+      <c r="B3" s="302"/>
+      <c r="C3" s="302"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="302"/>
+      <c r="H3" s="303"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="199" t="s">
@@ -6165,16 +6171,16 @@
       <c r="H4" s="195"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="291" t="s">
+      <c r="A5" s="297" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="292"/>
-      <c r="C5" s="292"/>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="293"/>
+      <c r="B5" s="298"/>
+      <c r="C5" s="298"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="298"/>
+      <c r="H5" s="299"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
@@ -6195,7 +6201,7 @@
         <v>49</v>
       </c>
       <c r="G6" s="276"/>
-      <c r="H6" s="272">
+      <c r="H6" s="270">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -6213,9 +6219,9 @@
         <v>0</v>
       </c>
       <c r="E7" s="250"/>
-      <c r="F7" s="298"/>
+      <c r="F7" s="304"/>
       <c r="G7" s="247"/>
-      <c r="H7" s="294"/>
+      <c r="H7" s="300"/>
     </row>
     <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
@@ -6237,7 +6243,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="276"/>
-      <c r="H8" s="272">
+      <c r="H8" s="270">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -6250,16 +6256,16 @@
         <f>Page1!G44</f>
         <v>461303700</v>
       </c>
-      <c r="C9" s="270" t="s">
+      <c r="C9" s="273" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="275" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="276"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="273"/>
+      <c r="F9" s="279"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="271"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="105" t="s">
@@ -6269,36 +6275,36 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="271"/>
+      <c r="C10" s="274"/>
       <c r="D10" s="277"/>
       <c r="E10" s="278"/>
       <c r="F10" s="277"/>
       <c r="G10" s="278"/>
-      <c r="H10" s="274"/>
+      <c r="H10" s="272"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="279" t="s">
+      <c r="A11" s="281" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="281" t="s">
+      <c r="B11" s="283" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="283" t="s">
+      <c r="C11" s="285" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="284"/>
-      <c r="E11" s="285"/>
-      <c r="F11" s="301" t="s">
+      <c r="D11" s="286"/>
+      <c r="E11" s="287"/>
+      <c r="F11" s="290" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="302"/>
-      <c r="H11" s="286" t="s">
+      <c r="G11" s="291"/>
+      <c r="H11" s="288" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="280"/>
-      <c r="B12" s="282"/>
+      <c r="A12" s="282"/>
+      <c r="B12" s="284"/>
       <c r="C12" s="107" t="s">
         <v>62</v>
       </c>
@@ -6308,9 +6314,9 @@
       <c r="E12" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="303"/>
-      <c r="G12" s="304"/>
-      <c r="H12" s="287"/>
+      <c r="F12" s="292"/>
+      <c r="G12" s="293"/>
+      <c r="H12" s="289"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="108" t="s">
@@ -6518,11 +6524,11 @@
       <c r="E21" s="33">
         <v>0.6</v>
       </c>
-      <c r="F21" s="204" t="e">
+      <c r="F21" s="307" t="e">
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="205"/>
+      <c r="G21" s="308"/>
       <c r="H21" s="228"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6541,11 +6547,11 @@
       <c r="E22" s="33">
         <v>1.4</v>
       </c>
-      <c r="F22" s="204" t="e">
+      <c r="F22" s="307" t="e">
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="205"/>
+      <c r="G22" s="308"/>
       <c r="H22" s="145"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6897,7 +6903,7 @@
       <c r="G41" s="179"/>
       <c r="H41" s="195"/>
     </row>
-    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="242"/>
       <c r="B42" s="243"/>
       <c r="C42" s="199"/>
@@ -6913,13 +6919,13 @@
       <c r="C43" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="241"/>
-      <c r="E43" s="240"/>
+      <c r="D43" s="240"/>
+      <c r="E43" s="241"/>
       <c r="F43" s="239" t="s">
         <v>137</v>
       </c>
-      <c r="G43" s="241"/>
-      <c r="H43" s="240"/>
+      <c r="G43" s="240"/>
+      <c r="H43" s="241"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="119"/>
